--- a/backend/data_mining/Untitled spreadsheet.xlsx
+++ b/backend/data_mining/Untitled spreadsheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="137">
   <si>
     <t># Kostnader</t>
   </si>
@@ -61,10 +61,48 @@
     <t>Pris som tilbys</t>
   </si>
   <si>
-    <t>Gjsn lønn for 1 ansatt, pr mnd (abbonoment)</t>
-  </si>
-  <si>
-    <t>Engangsbeløp i første runde</t>
+    <r>
+      <rPr>
+        <rFont val="Consolas"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Engangsbeløp</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Consolas"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> i første periode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Consolas"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Gjsn lønn 1 ansatt, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Consolas"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>pr mnd</t>
+    </r>
+  </si>
+  <si>
+    <t>19.43% - 27.65%</t>
+  </si>
+  <si>
+    <t>mindre enn nasjonalt gjsn-lønn</t>
   </si>
   <si>
     <t>endring i resultatet etter tilbud:</t>
@@ -73,12 +111,36 @@
     <t>endring</t>
   </si>
   <si>
+    <t>gjsn lønn</t>
+  </si>
+  <si>
+    <t>pr mnd</t>
+  </si>
+  <si>
+    <t>pr anno</t>
+  </si>
+  <si>
+    <t>mitt tilbud</t>
+  </si>
+  <si>
+    <t>% diff fra gjsn</t>
+  </si>
+  <si>
+    <t>alt tilbud</t>
+  </si>
+  <si>
     <t xml:space="preserve">vekst i kr </t>
   </si>
   <si>
+    <t>alle sekt. menn</t>
+  </si>
+  <si>
     <t>vekst i Totalrentabilitet i %</t>
   </si>
   <si>
+    <t>priv. sekt. alder</t>
+  </si>
+  <si>
     <t>Vekst i resultat av driften i %</t>
   </si>
   <si>
@@ -286,6 +348,9 @@
     <t>Sum finansinntekter</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Nedskrivning fin. anleggsmidler</t>
   </si>
   <si>
@@ -340,13 +405,55 @@
     <t>Konsernbidrag</t>
   </si>
   <si>
-    <t>ÅRS REGNSKAP</t>
-  </si>
-  <si>
     <t>Årsresultat (ENDRING)</t>
   </si>
   <si>
+    <t>Regnskaps-Kalkyle</t>
+  </si>
+  <si>
+    <t>per anno</t>
+  </si>
+  <si>
+    <t>pr arb.mnd</t>
+  </si>
+  <si>
+    <t>pr ansatt</t>
+  </si>
+  <si>
+    <t>frekrvens</t>
+  </si>
+  <si>
+    <t>ant ansatte</t>
+  </si>
+  <si>
+    <t>est ant kontrakter</t>
+  </si>
+  <si>
+    <t>gjsn. salgs pris</t>
+  </si>
+  <si>
     <t>ProSpector abbonoment</t>
+  </si>
+  <si>
+    <t>salgs innt</t>
+  </si>
+  <si>
+    <t>kost eksl. lønn</t>
+  </si>
+  <si>
+    <t>innt - kost, eksl. mva &amp; skatt</t>
+  </si>
+  <si>
+    <t>utbytte</t>
+  </si>
+  <si>
+    <t>ebitda</t>
+  </si>
+  <si>
+    <t>innt - kost - utbytte, eksl. mva &amp; skatt</t>
+  </si>
+  <si>
+    <t>Lønnsbudsjett etter alle finansielle obligasjoner</t>
   </si>
 </sst>
 </file>
@@ -361,7 +468,7 @@
     <numFmt numFmtId="168" formatCode="### ### ### ##0.000"/>
     <numFmt numFmtId="169" formatCode="### ### ### ##0.00000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="36">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -389,9 +496,27 @@
     </font>
     <font>
       <b/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Consolas"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -406,20 +531,9 @@
       <name val="Consolas"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11.0"/>
       <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -510,8 +624,42 @@
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <i/>
+      <sz val="11.0"/>
       <color theme="1"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11.0"/>
+      <color rgb="FF666666"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF666666"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF0B5394"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF999999"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Consolas"/>
     </font>
     <font>
@@ -522,7 +670,7 @@
       <name val="Consolas"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,8 +679,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA2C4C9"/>
+        <bgColor rgb="FFA2C4C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -548,12 +726,17 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -585,6 +768,11 @@
       </bottom>
     </border>
     <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -594,11 +782,6 @@
     </border>
     <border>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
         <color rgb="FF000000"/>
       </top>
     </border>
@@ -616,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="146">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -651,187 +834,326 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="7" fontId="9" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="3" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="7" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="7" fontId="9" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="168" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="16" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="26" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="34" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1050,10 +1372,17 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.25"/>
-    <col customWidth="1" min="2" max="2" width="16.88"/>
-    <col customWidth="1" min="7" max="7" width="4.75"/>
-    <col customWidth="1" min="8" max="8" width="21.63"/>
+    <col customWidth="1" min="1" max="1" width="36.25"/>
+    <col customWidth="1" min="2" max="2" width="14.5"/>
+    <col customWidth="1" min="3" max="3" width="15.25"/>
+    <col customWidth="1" min="4" max="4" width="16.38"/>
+    <col customWidth="1" min="5" max="5" width="10.88"/>
+    <col customWidth="1" min="6" max="6" width="12.13"/>
+    <col customWidth="1" min="7" max="7" width="11.13"/>
+    <col customWidth="1" min="8" max="8" width="16.5"/>
+    <col customWidth="1" min="9" max="9" width="11.88"/>
+    <col customWidth="1" min="10" max="11" width="15.0"/>
+    <col customWidth="1" min="12" max="12" width="14.5"/>
     <col customWidth="1" min="14" max="14" width="5.13"/>
     <col customWidth="1" min="15" max="15" width="18.0"/>
   </cols>
@@ -1245,47 +1574,51 @@
     </row>
     <row r="14">
       <c r="A14" s="7"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="20">
+        <v>38000.0</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="25">
         <v>38860.0</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="17">
-        <v>38000.0</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="C17" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="22"/>
       <c r="F17" s="11"/>
       <c r="G17" s="8"/>
     </row>
@@ -1296,120 +1629,190 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="8"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19">
-      <c r="A19" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="21">
-        <f> (B154-B91)/B91</f>
+      <c r="B20" s="34">
+        <f> (B135-B91)/B91</f>
         <v>0.9019466073</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="22">
+      <c r="A21" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="40">
         <f>B20*B91</f>
         <v>810850</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
+      <c r="D21" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="14">
+        <v>53710.0</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" ref="F21:F22" si="2">E21*12</f>
+        <v>644520</v>
+      </c>
+      <c r="G21" s="42">
+        <v>38860.0</v>
+      </c>
+      <c r="H21" s="43">
+        <f t="shared" ref="H21:H22" si="3">-(E21-G21)/E21</f>
+        <v>-0.2764848259</v>
+      </c>
+      <c r="I21" s="44">
+        <v>34926.592592592584</v>
+      </c>
+      <c r="J21" s="45">
+        <f t="shared" ref="J21:J22" si="4">-(E21-I21)/E21</f>
+        <v>-0.3497189985</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="21">
-        <f t="shared" ref="B22:B24" si="2">C30-B30</f>
+      <c r="A22" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="34">
+        <f t="shared" ref="B22:B24" si="5">C30-B30</f>
         <v>0.6277800202</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
+      <c r="D22" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="47">
+        <v>48230.0</v>
+      </c>
+      <c r="F22" s="48">
+        <f t="shared" si="2"/>
+        <v>578760</v>
+      </c>
+      <c r="G22" s="49">
+        <v>38860.0</v>
+      </c>
+      <c r="H22" s="50">
+        <f t="shared" si="3"/>
+        <v>-0.1942774207</v>
+      </c>
+      <c r="I22" s="51">
+        <v>34926.592592592584</v>
+      </c>
+      <c r="J22" s="52">
+        <f t="shared" si="4"/>
+        <v>-0.275832623</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="21">
-        <f t="shared" si="2"/>
+      <c r="A23" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="34">
+        <f t="shared" si="5"/>
         <v>0.01774159756</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
+      <c r="D23" s="53"/>
     </row>
     <row r="24">
-      <c r="A24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="21">
-        <f t="shared" si="2"/>
+      <c r="A24" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="34">
+        <f t="shared" si="5"/>
         <v>4.632250373</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="23">
+      <c r="A25" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="56">
         <v>-0.5</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26">
-      <c r="A26" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="23">
+      <c r="A26" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="56">
         <v>1.0</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1419,173 +1822,173 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29">
-      <c r="B29" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="H29" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="26">
+      <c r="B29" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="57"/>
+      <c r="H29" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="59">
         <v>0.141</v>
       </c>
-      <c r="J29" s="27" t="s">
-        <v>31</v>
+      <c r="J29" s="60" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="29">
+      <c r="A30" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="62">
         <v>0.498</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="62">
         <f>(I71+I77)/ 2477500</f>
         <v>1.12578002</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="62">
         <f>(P71+P77)/ 2477500</f>
         <v>2.549489405</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="H30" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="32">
+      <c r="E30" s="63"/>
+      <c r="H30" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="65">
         <v>0.155382</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="66">
         <v>0.0995</v>
       </c>
-      <c r="K30" s="34" t="s">
-        <v>34</v>
+      <c r="K30" s="67" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="29">
+        <v>45</v>
+      </c>
+      <c r="B31" s="62">
         <v>0.134</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="62">
         <f>I71/I62</f>
         <v>0.1517415976</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="62">
         <f>P71/P62</f>
         <v>0.1720962462</v>
       </c>
-      <c r="H31" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="36">
+      <c r="H31" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="69">
         <v>0.102</v>
       </c>
-      <c r="J31" s="37"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="38">
+        <v>47</v>
+      </c>
+      <c r="B32" s="70">
         <f>B85/E32</f>
         <v>3.55290611</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="62">
         <f>I85/E32</f>
         <v>8.185156483</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="62">
         <f>P85/E32</f>
         <v>18.69853949</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="71">
         <f>(285000+386000)/2</f>
         <v>335500</v>
       </c>
-      <c r="F32" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="42">
+      <c r="F32" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="74">
         <v>0.1658946646079945</v>
       </c>
-      <c r="J32" s="43"/>
+      <c r="J32" s="55"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="30">
+        <v>50</v>
+      </c>
+      <c r="B33" s="63">
         <v>1.1</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="63">
         <v>1.1</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="63">
         <v>1.1</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="H33" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="42">
+      <c r="E33" s="63"/>
+      <c r="H33" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="74">
         <v>0.24580536912751677</v>
       </c>
-      <c r="J33" s="43"/>
+      <c r="J33" s="55"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="30">
+        <v>52</v>
+      </c>
+      <c r="B34" s="63">
         <v>7.3</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="63">
         <v>7.3</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="63">
         <v>7.3</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="H34" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="45">
+      <c r="E34" s="63"/>
+      <c r="H34" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="76">
         <v>0.25</v>
       </c>
-      <c r="J34" s="43"/>
+      <c r="J34" s="55"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="30">
+        <v>54</v>
+      </c>
+      <c r="B35" s="63">
         <v>12.7</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="63">
         <v>12.7</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="63">
         <v>12.7</v>
       </c>
-      <c r="E35" s="30"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B36" s="6">
         <v>15.0</v>
@@ -1602,7 +2005,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B37" s="6">
         <v>3.0</v>
@@ -1619,52 +2022,52 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="46">
+        <v>57</v>
+      </c>
+      <c r="B38" s="77">
         <v>0.1</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="77">
         <v>0.1</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="77">
         <v>0.1</v>
       </c>
-      <c r="E38" s="46"/>
+      <c r="E38" s="77"/>
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="47">
+        <v>34</v>
+      </c>
+      <c r="B39" s="23">
         <v>0.5</v>
       </c>
-      <c r="C39" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="D39" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="E39" s="47"/>
+      <c r="C39" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="E39" s="23"/>
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="47">
+        <v>35</v>
+      </c>
+      <c r="B40" s="23">
         <v>0.5</v>
       </c>
-      <c r="C40" s="47">
+      <c r="C40" s="23">
         <v>1.0</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="23">
         <v>1.0</v>
       </c>
-      <c r="E40" s="47"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
       <c r="H40" s="4"/>
@@ -1673,30 +2076,30 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="47">
-        <f t="shared" ref="B41:D41" si="3">B52/B50</f>
+        <v>58</v>
+      </c>
+      <c r="B41" s="23">
+        <f t="shared" ref="B41:D41" si="6">B52/B50</f>
         <v>0.477056962</v>
       </c>
-      <c r="C41" s="47">
-        <f t="shared" si="3"/>
+      <c r="C41" s="23">
+        <f t="shared" si="6"/>
         <v>0.477056962</v>
       </c>
-      <c r="D41" s="47">
-        <f t="shared" si="3"/>
+      <c r="D41" s="23">
+        <f t="shared" si="6"/>
         <v>0.477056962</v>
       </c>
-      <c r="E41" s="47"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="2"/>
       <c r="G41" s="3"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="48"/>
+      <c r="J41" s="78"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
-      <c r="B42" s="47"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1704,781 +2107,781 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="49" t="s">
-        <v>49</v>
+      <c r="A43" s="79" t="s">
+        <v>59</v>
       </c>
       <c r="G43" s="3"/>
-      <c r="H43" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="O43" s="49" t="s">
-        <v>51</v>
+      <c r="H43" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="O43" s="79" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="52" t="s">
-        <v>56</v>
+      <c r="A44" s="80"/>
+      <c r="B44" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="82" t="s">
+        <v>66</v>
       </c>
       <c r="G44" s="3"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="K44" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="L44" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="M44" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="O44" s="50"/>
-      <c r="P44" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q44" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="R44" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="S44" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="T44" s="52" t="s">
-        <v>56</v>
+      <c r="H44" s="80"/>
+      <c r="I44" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="J44" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="L44" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="M44" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="O44" s="80"/>
+      <c r="P44" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q44" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="R44" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="S44" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="T44" s="82" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="55">
+      <c r="A45" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="85">
         <v>1.0</v>
       </c>
-      <c r="C45" s="55">
+      <c r="C45" s="85">
         <v>10.0</v>
       </c>
-      <c r="D45" s="55">
+      <c r="D45" s="85">
         <v>230.0</v>
       </c>
-      <c r="E45" s="55">
+      <c r="E45" s="85">
         <f>8*D45</f>
         <v>1840</v>
       </c>
-      <c r="F45" s="55">
+      <c r="F45" s="85">
         <v>5.0</v>
       </c>
       <c r="G45" s="3"/>
-      <c r="H45" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="55">
+      <c r="H45" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="85">
         <v>1.0</v>
       </c>
-      <c r="J45" s="55">
+      <c r="J45" s="85">
         <v>10.0</v>
       </c>
-      <c r="K45" s="55">
+      <c r="K45" s="85">
         <v>230.0</v>
       </c>
-      <c r="L45" s="55">
+      <c r="L45" s="85">
         <f>8*K45</f>
         <v>1840</v>
       </c>
-      <c r="M45" s="55">
+      <c r="M45" s="85">
         <v>5.0</v>
       </c>
-      <c r="O45" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="P45" s="55">
+      <c r="O45" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" s="85">
         <v>1.0</v>
       </c>
-      <c r="Q45" s="55">
+      <c r="Q45" s="85">
         <v>10.0</v>
       </c>
-      <c r="R45" s="55">
+      <c r="R45" s="85">
         <v>230.0</v>
       </c>
-      <c r="S45" s="55">
+      <c r="S45" s="85">
         <f>8*R45</f>
         <v>1840</v>
       </c>
-      <c r="T45" s="55">
+      <c r="T45" s="85">
         <v>5.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="57">
+      <c r="A46" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="87">
         <v>5000.0</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="87">
         <v>5000.0</v>
       </c>
-      <c r="D46" s="57">
+      <c r="D46" s="87">
         <v>5000.0</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E46" s="87">
         <v>5000.0</v>
       </c>
-      <c r="F46" s="57">
+      <c r="F46" s="87">
         <v>5000.0</v>
       </c>
       <c r="G46" s="3"/>
-      <c r="H46" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="I46" s="57">
+      <c r="H46" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" s="87">
         <v>5000.0</v>
       </c>
-      <c r="J46" s="57">
+      <c r="J46" s="87">
         <v>5000.0</v>
       </c>
-      <c r="K46" s="57">
+      <c r="K46" s="87">
         <v>5000.0</v>
       </c>
-      <c r="L46" s="57">
+      <c r="L46" s="87">
         <v>5000.0</v>
       </c>
-      <c r="M46" s="57">
+      <c r="M46" s="87">
         <v>5000.0</v>
       </c>
-      <c r="O46" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="P46" s="57">
+      <c r="O46" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="P46" s="87">
         <v>5000.0</v>
       </c>
-      <c r="Q46" s="57">
+      <c r="Q46" s="87">
         <v>5000.0</v>
       </c>
-      <c r="R46" s="57">
+      <c r="R46" s="87">
         <v>5000.0</v>
       </c>
-      <c r="S46" s="57">
+      <c r="S46" s="87">
         <v>5000.0</v>
       </c>
-      <c r="T46" s="57">
+      <c r="T46" s="87">
         <v>5000.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B47" s="4">
         <f>B61/B46</f>
         <v>2443.733333</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" ref="C47:E47" si="4">$B47/C$45</f>
+        <f t="shared" ref="C47:E47" si="7">$B47/C$45</f>
         <v>244.3733333</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10.62492754</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.328115942</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" ref="F47:F52" si="8">$B47*F$45</f>
+        <f t="shared" ref="F47:F52" si="11">$B47*F$45</f>
         <v>12218.66667</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I47" s="4">
         <f>I61/I46</f>
         <v>4887.466667</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" ref="J47:L47" si="5">$I47/J$45</f>
+        <f t="shared" ref="J47:L47" si="8">$I47/J$45</f>
         <v>488.7466667</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>21.24985507</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.656231884</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" ref="M47:M52" si="10">$I47*M$45</f>
+        <f t="shared" ref="M47:M52" si="13">$I47*M$45</f>
         <v>24437.33333</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="P47" s="4">
         <f>P61/P46</f>
         <v>9774.933333</v>
       </c>
       <c r="Q47" s="2">
-        <f t="shared" ref="Q47:S47" si="6">$P47/Q$45</f>
+        <f t="shared" ref="Q47:S47" si="9">$P47/Q$45</f>
         <v>977.4933333</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>42.49971014</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.312463768</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" ref="T47:T52" si="12">$P47*T$45</f>
+        <f t="shared" ref="T47:T52" si="15">$P47*T$45</f>
         <v>48874.66667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B48" s="4">
         <f>B47/B36</f>
         <v>162.9155556</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" ref="C48:E48" si="7">$B48/C$45</f>
+        <f t="shared" ref="C48:E48" si="10">$B48/C$45</f>
         <v>16.29155556</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.7083285024</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.0885410628</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>814.5777778</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I48" s="4">
         <f>I47/C36</f>
         <v>325.8311111</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" ref="J48:L48" si="9">$I48/J$45</f>
+        <f t="shared" ref="J48:L48" si="12">$I48/J$45</f>
         <v>32.58311111</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.416657005</v>
       </c>
       <c r="L48" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.1770821256</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1629.155556</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P48" s="4">
         <f>P47/D36</f>
         <v>325.8311111</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" ref="Q48:S48" si="11">$P48/Q$45</f>
+        <f t="shared" ref="Q48:S48" si="14">$P48/Q$45</f>
         <v>32.58311111</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.416657005</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.1770821256</v>
       </c>
       <c r="T48" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1629.155556</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2">
         <f>B47*(100*B38)</f>
         <v>24437.33333</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" ref="C49:E49" si="13">$B49/C$45</f>
+        <f t="shared" ref="C49:E49" si="16">$B49/C$45</f>
         <v>2443.733333</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>106.2492754</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>13.28115942</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>122186.6667</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I49" s="2">
         <f>I47*(100*B38)</f>
         <v>48874.66667</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" ref="J49:L49" si="14">$I49/J$45</f>
+        <f t="shared" ref="J49:L49" si="17">$I49/J$45</f>
         <v>4887.466667</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>212.4985507</v>
       </c>
       <c r="L49" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>26.56231884</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>244373.3333</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="P49" s="2">
         <f>P47*(100*C38)</f>
         <v>97749.33333</v>
       </c>
       <c r="Q49" s="2">
-        <f t="shared" ref="Q49:S49" si="15">$P49/Q$45</f>
+        <f t="shared" ref="Q49:S49" si="18">$P49/Q$45</f>
         <v>9774.933333</v>
       </c>
       <c r="R49" s="2">
+        <f t="shared" si="18"/>
+        <v>424.9971014</v>
+      </c>
+      <c r="S49" s="2">
+        <f t="shared" si="18"/>
+        <v>53.12463768</v>
+      </c>
+      <c r="T49" s="2">
         <f t="shared" si="15"/>
-        <v>424.9971014</v>
-      </c>
-      <c r="S49" s="2">
-        <f t="shared" si="15"/>
-        <v>53.12463768</v>
-      </c>
-      <c r="T49" s="2">
-        <f t="shared" si="12"/>
         <v>488746.6667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B50" s="4">
         <f>B61/B36</f>
         <v>814577.7778</v>
       </c>
       <c r="C50" s="2">
-        <f t="shared" ref="C50:E50" si="16">$B50/C$45</f>
+        <f t="shared" ref="C50:E50" si="19">$B50/C$45</f>
         <v>81457.77778</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3541.642512</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>442.705314</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4072888.889</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I50" s="4">
         <f>I61/C36</f>
         <v>1629155.556</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" ref="J50:L50" si="17">$I50/J$45</f>
+        <f t="shared" ref="J50:L50" si="20">$I50/J$45</f>
         <v>162915.5556</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7083.285024</v>
       </c>
       <c r="L50" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>885.410628</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8145777.778</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="P50" s="4">
         <f>P61/D36</f>
         <v>1629155.556</v>
       </c>
       <c r="Q50" s="2">
-        <f t="shared" ref="Q50:S50" si="18">$P50/Q$45</f>
+        <f t="shared" ref="Q50:S50" si="21">$P50/Q$45</f>
         <v>162915.5556</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>7083.285024</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>885.410628</v>
       </c>
       <c r="T50" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8145777.778</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2">
         <f>B84/B36</f>
         <v>532000</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" ref="C51:E51" si="19">$B51/C$45</f>
+        <f t="shared" ref="C51:E51" si="22">$B51/C$45</f>
         <v>53200</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2313.043478</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>289.1304348</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2660000</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I51" s="2">
         <f>I84/C36</f>
         <v>1039325.333</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" ref="J51:L51" si="20">$I51/J$45</f>
+        <f t="shared" ref="J51:L51" si="23">$I51/J$45</f>
         <v>103932.5333</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4518.805797</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>564.8507246</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5196626.667</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P51" s="2">
         <f>P84/D36</f>
         <v>1013021.333</v>
       </c>
       <c r="Q51" s="2">
-        <f t="shared" ref="Q51:S51" si="21">$P51/Q$45</f>
+        <f t="shared" ref="Q51:S51" si="24">$P51/Q$45</f>
         <v>101302.1333</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4404.44058</v>
       </c>
       <c r="S51" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>550.5550725</v>
       </c>
       <c r="T51" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5065106.667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2">
         <f>B66/B36</f>
         <v>388600</v>
       </c>
       <c r="C52" s="2">
-        <f t="shared" ref="C52:E52" si="22">$B52/C$45</f>
+        <f t="shared" ref="C52:E52" si="25">$B52/C$45</f>
         <v>38860</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1689.565217</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>211.1956522</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1943000</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I52" s="2">
         <f>I66/C36</f>
         <v>777200</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" ref="J52:L52" si="23">$I52/J$45</f>
+        <f t="shared" ref="J52:L52" si="26">$I52/J$45</f>
         <v>77720</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3379.130435</v>
       </c>
       <c r="L52" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>422.3913043</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3886000</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="P52" s="2">
         <f>P66/D36</f>
         <v>777200</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" ref="Q52:S52" si="24">$P52/Q$45</f>
+        <f t="shared" ref="Q52:S52" si="27">$P52/Q$45</f>
         <v>77720</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3379.130435</v>
       </c>
       <c r="S52" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>422.3913043</v>
       </c>
       <c r="T52" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3886000</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="59">
-        <f t="shared" ref="B53:F53" si="25">B50-B52</f>
+      <c r="A53" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="89">
+        <f t="shared" ref="B53:F53" si="28">B50-B52</f>
         <v>425977.7778</v>
       </c>
-      <c r="C53" s="59">
-        <f t="shared" si="25"/>
+      <c r="C53" s="89">
+        <f t="shared" si="28"/>
         <v>42597.77778</v>
       </c>
-      <c r="D53" s="59">
-        <f t="shared" si="25"/>
+      <c r="D53" s="89">
+        <f t="shared" si="28"/>
         <v>1852.077295</v>
       </c>
-      <c r="E53" s="59">
-        <f t="shared" si="25"/>
+      <c r="E53" s="89">
+        <f t="shared" si="28"/>
         <v>231.5096618</v>
       </c>
-      <c r="F53" s="59">
-        <f t="shared" si="25"/>
+      <c r="F53" s="89">
+        <f t="shared" si="28"/>
         <v>2129888.889</v>
       </c>
       <c r="G53" s="3"/>
-      <c r="H53" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="I53" s="59">
-        <f t="shared" ref="I53:M53" si="26">I50-I52</f>
+      <c r="H53" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="89">
+        <f t="shared" ref="I53:M53" si="29">I50-I52</f>
         <v>851955.5556</v>
       </c>
-      <c r="J53" s="59">
-        <f t="shared" si="26"/>
+      <c r="J53" s="89">
+        <f t="shared" si="29"/>
         <v>85195.55556</v>
       </c>
-      <c r="K53" s="59">
-        <f t="shared" si="26"/>
+      <c r="K53" s="89">
+        <f t="shared" si="29"/>
         <v>3704.154589</v>
       </c>
-      <c r="L53" s="59">
-        <f t="shared" si="26"/>
+      <c r="L53" s="89">
+        <f t="shared" si="29"/>
         <v>463.0193237</v>
       </c>
-      <c r="M53" s="59">
-        <f t="shared" si="26"/>
+      <c r="M53" s="89">
+        <f t="shared" si="29"/>
         <v>4259777.778</v>
       </c>
-      <c r="O53" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="P53" s="59">
-        <f t="shared" ref="P53:T53" si="27">P50-P52</f>
+      <c r="O53" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="P53" s="89">
+        <f t="shared" ref="P53:T53" si="30">P50-P52</f>
         <v>851955.5556</v>
       </c>
-      <c r="Q53" s="59">
-        <f t="shared" si="27"/>
+      <c r="Q53" s="89">
+        <f t="shared" si="30"/>
         <v>85195.55556</v>
       </c>
-      <c r="R53" s="59">
-        <f t="shared" si="27"/>
+      <c r="R53" s="89">
+        <f t="shared" si="30"/>
         <v>3704.154589</v>
       </c>
-      <c r="S53" s="59">
-        <f t="shared" si="27"/>
+      <c r="S53" s="89">
+        <f t="shared" si="30"/>
         <v>463.0193237</v>
       </c>
-      <c r="T53" s="59">
-        <f t="shared" si="27"/>
+      <c r="T53" s="89">
+        <f t="shared" si="30"/>
         <v>4259777.778</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" ref="B54:F54" si="28">B50-B51</f>
+        <f t="shared" ref="B54:F54" si="31">B50-B51</f>
         <v>282577.7778</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>28257.77778</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1228.599034</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>153.5748792</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1412888.889</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" ref="I54:M54" si="29">I50-I51</f>
+        <f t="shared" ref="I54:M54" si="32">I50-I51</f>
         <v>589830.2222</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>58983.02222</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2564.479227</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>320.5599034</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2949151.111</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" ref="P54:T54" si="30">P50-P51</f>
+        <f t="shared" ref="P54:T54" si="33">P50-P51</f>
         <v>616134.2222</v>
       </c>
       <c r="Q54" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>61613.42222</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2678.844444</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>334.8555556</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3080671.111</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="60"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
+      <c r="A55" s="90"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="60"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="60"/>
-      <c r="T55" s="60"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="90"/>
+      <c r="O55" s="90"/>
+      <c r="P55" s="91"/>
+      <c r="Q55" s="90"/>
+      <c r="R55" s="90"/>
+      <c r="S55" s="90"/>
+      <c r="T55" s="90"/>
     </row>
     <row r="56">
       <c r="A56" s="3"/>
@@ -2491,61 +2894,61 @@
     </row>
     <row r="57">
       <c r="A57" s="3"/>
-      <c r="B57" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="63" t="s">
-        <v>68</v>
+      <c r="B57" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="93" t="s">
+        <v>78</v>
       </c>
       <c r="H57" s="3"/>
-      <c r="I57" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="K57" s="63"/>
+      <c r="I57" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="K57" s="93"/>
       <c r="O57" s="3"/>
-      <c r="P57" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="R57" s="63"/>
+      <c r="P57" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="R57" s="93"/>
     </row>
     <row r="58">
-      <c r="A58" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="H58" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="I58" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="J58" s="65"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="66"/>
-      <c r="O58" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="P58" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q58" s="65"/>
-      <c r="R58" s="66"/>
-      <c r="S58" s="66"/>
+      <c r="A58" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="H58" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="J58" s="95"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="O58" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="P58" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q58" s="95"/>
+      <c r="R58" s="96"/>
+      <c r="S58" s="96"/>
     </row>
     <row r="59">
-      <c r="A59" s="67" t="s">
-        <v>72</v>
+      <c r="A59" s="97" t="s">
+        <v>82</v>
       </c>
       <c r="B59" s="14">
         <f>B61*0.75</f>
@@ -2554,13 +2957,13 @@
       <c r="C59" s="14">
         <v>1631000.0</v>
       </c>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68">
+      <c r="D59" s="98"/>
+      <c r="E59" s="98">
         <f>C59/B59</f>
         <v>0.1779790485</v>
       </c>
-      <c r="H59" s="67" t="s">
-        <v>72</v>
+      <c r="H59" s="97" t="s">
+        <v>82</v>
       </c>
       <c r="I59" s="14">
         <f>I61*0.75</f>
@@ -2570,10 +2973,10 @@
         <f>I59/B59</f>
         <v>2</v>
       </c>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="O59" s="67" t="s">
-        <v>72</v>
+      <c r="K59" s="98"/>
+      <c r="L59" s="98"/>
+      <c r="O59" s="97" t="s">
+        <v>82</v>
       </c>
       <c r="P59" s="14">
         <f>P61*0.75</f>
@@ -2582,12 +2985,12 @@
       <c r="Q59" s="14">
         <v>4.0</v>
       </c>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
+      <c r="R59" s="98"/>
+      <c r="S59" s="98"/>
     </row>
     <row r="60">
-      <c r="A60" s="67" t="s">
-        <v>73</v>
+      <c r="A60" s="97" t="s">
+        <v>83</v>
       </c>
       <c r="B60" s="14">
         <v>0.0</v>
@@ -2595,37 +2998,37 @@
       <c r="C60" s="14">
         <v>0.0</v>
       </c>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68">
+      <c r="D60" s="98"/>
+      <c r="E60" s="98">
         <f>B59/C59</f>
         <v>5.618638872</v>
       </c>
-      <c r="H60" s="67" t="s">
-        <v>73</v>
+      <c r="H60" s="97" t="s">
+        <v>83</v>
       </c>
       <c r="I60" s="14">
         <v>0.0</v>
       </c>
-      <c r="J60" s="69">
+      <c r="J60" s="99">
         <v>0.02</v>
       </c>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="O60" s="67" t="s">
-        <v>73</v>
+      <c r="K60" s="98"/>
+      <c r="L60" s="98"/>
+      <c r="O60" s="97" t="s">
+        <v>83</v>
       </c>
       <c r="P60" s="14">
         <v>0.0</v>
       </c>
-      <c r="Q60" s="69">
+      <c r="Q60" s="99">
         <v>0.04</v>
       </c>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
+      <c r="R60" s="98"/>
+      <c r="S60" s="98"/>
     </row>
     <row r="61">
-      <c r="A61" s="67" t="s">
-        <v>74</v>
+      <c r="A61" s="97" t="s">
+        <v>84</v>
       </c>
       <c r="B61" s="11">
         <f>B62/(1-$I$34)</f>
@@ -2635,139 +3038,139 @@
         <f>C62/(1-I34)</f>
         <v>2174666.667</v>
       </c>
-      <c r="D61" s="68"/>
-      <c r="E61" s="70">
+      <c r="D61" s="98"/>
+      <c r="E61" s="100">
         <f>E70-D70</f>
         <v>0.03184508143</v>
       </c>
-      <c r="F61" s="71"/>
-      <c r="H61" s="67" t="s">
-        <v>74</v>
+      <c r="F61" s="101"/>
+      <c r="H61" s="97" t="s">
+        <v>84</v>
       </c>
       <c r="I61" s="11">
         <f>B61*2</f>
         <v>24437333.33</v>
       </c>
-      <c r="J61" s="72"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="70"/>
-      <c r="O61" s="67" t="s">
-        <v>74</v>
+      <c r="J61" s="102"/>
+      <c r="K61" s="98"/>
+      <c r="L61" s="100"/>
+      <c r="O61" s="97" t="s">
+        <v>84</v>
       </c>
       <c r="P61" s="11">
         <f>B61*4</f>
         <v>48874666.67</v>
       </c>
       <c r="Q61" s="11"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="70"/>
+      <c r="R61" s="98"/>
+      <c r="S61" s="100"/>
     </row>
     <row r="62">
-      <c r="A62" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="73">
+      <c r="A62" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="103">
         <v>9164000.0</v>
       </c>
-      <c r="C62" s="73">
+      <c r="C62" s="103">
         <v>1631000.0</v>
       </c>
-      <c r="D62" s="68"/>
-      <c r="E62" s="70">
+      <c r="D62" s="98"/>
+      <c r="E62" s="100">
         <f>E61/E60</f>
         <v>0.00566775729</v>
       </c>
-      <c r="F62" s="71"/>
-      <c r="H62" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="I62" s="73">
+      <c r="F62" s="101"/>
+      <c r="H62" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" s="103">
         <f>I59</f>
         <v>18328000</v>
       </c>
-      <c r="J62" s="73"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="70"/>
-      <c r="O62" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="P62" s="73">
+      <c r="J62" s="103"/>
+      <c r="K62" s="98"/>
+      <c r="L62" s="100"/>
+      <c r="O62" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="P62" s="103">
         <f>P59</f>
         <v>36656000</v>
       </c>
-      <c r="Q62" s="73"/>
-      <c r="R62" s="68"/>
-      <c r="S62" s="70"/>
+      <c r="Q62" s="103"/>
+      <c r="R62" s="98"/>
+      <c r="S62" s="100"/>
     </row>
     <row r="63">
-      <c r="A63" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="74">
+      <c r="A63" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="104">
         <v>1000.0</v>
       </c>
-      <c r="C63" s="75">
-        <v>0.0</v>
-      </c>
-      <c r="D63" s="68"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="71"/>
+      <c r="C63" s="105">
+        <v>0.0</v>
+      </c>
+      <c r="D63" s="98"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="101"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="I63" s="74">
+      <c r="H63" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="I63" s="104">
         <v>1000.0</v>
       </c>
-      <c r="J63" s="75"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="70"/>
-      <c r="O63" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="P63" s="74">
+      <c r="J63" s="105"/>
+      <c r="K63" s="98"/>
+      <c r="L63" s="100"/>
+      <c r="O63" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="P63" s="104">
         <v>1000.0</v>
       </c>
-      <c r="Q63" s="75"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="70"/>
+      <c r="Q63" s="105"/>
+      <c r="R63" s="98"/>
+      <c r="S63" s="100"/>
     </row>
     <row r="64">
-      <c r="A64" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="76">
+      <c r="A64" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="106">
         <v>12000.0</v>
       </c>
-      <c r="C64" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="D64" s="68"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="I64" s="76">
+      <c r="C64" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="D64" s="98"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="I64" s="106">
         <v>12000.0</v>
       </c>
-      <c r="J64" s="76"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="77"/>
-      <c r="O64" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="P64" s="76">
+      <c r="J64" s="106"/>
+      <c r="K64" s="98"/>
+      <c r="L64" s="107"/>
+      <c r="O64" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="P64" s="106">
         <v>12000.0</v>
       </c>
-      <c r="Q64" s="76"/>
-      <c r="R64" s="68"/>
-      <c r="S64" s="77"/>
+      <c r="Q64" s="106"/>
+      <c r="R64" s="98"/>
+      <c r="S64" s="107"/>
     </row>
     <row r="65">
-      <c r="A65" s="67" t="s">
-        <v>78</v>
+      <c r="A65" s="97" t="s">
+        <v>88</v>
       </c>
       <c r="B65" s="14">
         <v>0.0</v>
@@ -2775,73 +3178,73 @@
       <c r="C65" s="14">
         <v>0.0</v>
       </c>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="67" t="s">
-        <v>78</v>
+      <c r="D65" s="98"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="97" t="s">
+        <v>88</v>
       </c>
       <c r="I65" s="14">
         <v>0.0</v>
       </c>
       <c r="J65" s="14"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
-      <c r="O65" s="67" t="s">
-        <v>78</v>
+      <c r="K65" s="98"/>
+      <c r="L65" s="98"/>
+      <c r="O65" s="97" t="s">
+        <v>88</v>
       </c>
       <c r="P65" s="14">
         <v>0.0</v>
       </c>
       <c r="Q65" s="14"/>
-      <c r="R65" s="68"/>
-      <c r="S65" s="68"/>
+      <c r="R65" s="98"/>
+      <c r="S65" s="98"/>
     </row>
     <row r="66">
-      <c r="A66" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="75">
+      <c r="A66" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="105">
         <v>5829000.0</v>
       </c>
-      <c r="C66" s="76">
+      <c r="C66" s="106">
         <v>735000.0</v>
       </c>
-      <c r="D66" s="68">
-        <f t="shared" ref="D66:E66" si="31">B67/B66</f>
+      <c r="D66" s="98">
+        <f t="shared" ref="D66:E66" si="34">B67/B66</f>
         <v>0.8341053354</v>
       </c>
-      <c r="E66" s="68">
-        <f t="shared" si="31"/>
+      <c r="E66" s="98">
+        <f t="shared" si="34"/>
         <v>0.7945578231</v>
       </c>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="I66" s="76">
+      <c r="F66" s="108"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="I66" s="106">
         <f>I61*C41</f>
         <v>11658000</v>
       </c>
-      <c r="J66" s="76"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68"/>
-      <c r="O66" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="P66" s="79">
+      <c r="J66" s="106"/>
+      <c r="K66" s="98"/>
+      <c r="L66" s="98"/>
+      <c r="O66" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="P66" s="109">
         <f>P61*D41</f>
         <v>23316000</v>
       </c>
-      <c r="Q66" s="76"/>
-      <c r="R66" s="68"/>
-      <c r="S66" s="68"/>
+      <c r="Q66" s="106"/>
+      <c r="R66" s="98"/>
+      <c r="S66" s="98"/>
     </row>
     <row r="67">
-      <c r="A67" s="67" t="s">
-        <v>80</v>
+      <c r="A67" s="97" t="s">
+        <v>90</v>
       </c>
       <c r="B67" s="14">
         <v>4862000.0</v>
@@ -2849,74 +3252,74 @@
       <c r="C67" s="14">
         <v>584000.0</v>
       </c>
-      <c r="D67" s="80">
-        <f t="shared" ref="D67:E67" si="32">(B66-B67)/B66</f>
+      <c r="D67" s="110">
+        <f t="shared" ref="D67:E67" si="35">(B66-B67)/B66</f>
         <v>0.1658946646</v>
       </c>
-      <c r="E67" s="80">
-        <f t="shared" si="32"/>
+      <c r="E67" s="110">
+        <f t="shared" si="35"/>
         <v>0.2054421769</v>
       </c>
-      <c r="F67" s="78"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="67" t="s">
-        <v>80</v>
+      <c r="F67" s="108"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="97" t="s">
+        <v>90</v>
       </c>
       <c r="I67" s="14">
         <f>D66*I66</f>
         <v>9724000</v>
       </c>
       <c r="J67" s="14"/>
-      <c r="K67" s="80"/>
-      <c r="L67" s="80"/>
-      <c r="O67" s="67" t="s">
-        <v>80</v>
+      <c r="K67" s="110"/>
+      <c r="L67" s="110"/>
+      <c r="O67" s="97" t="s">
+        <v>90</v>
       </c>
       <c r="P67" s="11">
         <f>D66*P66</f>
         <v>19448000</v>
       </c>
       <c r="Q67" s="14"/>
-      <c r="R67" s="80"/>
-      <c r="S67" s="80"/>
+      <c r="R67" s="110"/>
+      <c r="S67" s="110"/>
     </row>
     <row r="68">
-      <c r="A68" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="76">
+      <c r="A68" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="106">
         <v>27000.0</v>
       </c>
-      <c r="C68" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="I68" s="76">
+      <c r="C68" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="D68" s="98"/>
+      <c r="E68" s="98"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="I68" s="106">
         <v>27000.0</v>
       </c>
-      <c r="J68" s="76"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="68"/>
-      <c r="O68" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="P68" s="75">
+      <c r="J68" s="106"/>
+      <c r="K68" s="98"/>
+      <c r="L68" s="98"/>
+      <c r="O68" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="P68" s="105">
         <f>27000*2</f>
         <v>54000</v>
       </c>
-      <c r="Q68" s="76"/>
-      <c r="R68" s="68"/>
-      <c r="S68" s="68"/>
+      <c r="Q68" s="106"/>
+      <c r="R68" s="98"/>
+      <c r="S68" s="98"/>
     </row>
     <row r="69">
-      <c r="A69" s="67" t="s">
-        <v>82</v>
+      <c r="A69" s="97" t="s">
+        <v>92</v>
       </c>
       <c r="B69" s="14">
         <v>0.0</v>
@@ -2924,114 +3327,114 @@
       <c r="C69" s="14">
         <v>0.0</v>
       </c>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="67" t="s">
-        <v>82</v>
+      <c r="D69" s="98"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="97" t="s">
+        <v>92</v>
       </c>
       <c r="I69" s="14">
         <v>0.0</v>
       </c>
       <c r="J69" s="14"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="68"/>
-      <c r="O69" s="67" t="s">
-        <v>82</v>
+      <c r="K69" s="98"/>
+      <c r="L69" s="98"/>
+      <c r="O69" s="97" t="s">
+        <v>92</v>
       </c>
       <c r="P69" s="14">
         <v>0.0</v>
       </c>
       <c r="Q69" s="14"/>
-      <c r="R69" s="68"/>
-      <c r="S69" s="68"/>
+      <c r="R69" s="98"/>
+      <c r="S69" s="98"/>
     </row>
     <row r="70">
-      <c r="A70" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="76">
+      <c r="A70" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="106">
         <v>2068000.0</v>
       </c>
-      <c r="C70" s="76">
+      <c r="C70" s="106">
         <v>420000.0</v>
       </c>
-      <c r="D70" s="68">
-        <f t="shared" ref="D70:E70" si="33">B70/B59</f>
+      <c r="D70" s="98">
+        <f t="shared" ref="D70:E70" si="36">B70/B59</f>
         <v>0.2256656482</v>
       </c>
-      <c r="E70" s="68">
-        <f t="shared" si="33"/>
+      <c r="E70" s="98">
+        <f t="shared" si="36"/>
         <v>0.2575107296</v>
       </c>
-      <c r="F70" s="78"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="I70" s="76">
+      <c r="F70" s="108"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="I70" s="106">
         <f>I59*J70</f>
         <v>3848880</v>
       </c>
-      <c r="J70" s="75">
+      <c r="J70" s="105">
         <v>0.21</v>
       </c>
-      <c r="K70" s="68"/>
-      <c r="L70" s="68"/>
-      <c r="O70" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="P70" s="76">
+      <c r="K70" s="98"/>
+      <c r="L70" s="98"/>
+      <c r="O70" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="P70" s="106">
         <f>P59*Q70</f>
         <v>6964640</v>
       </c>
       <c r="Q70" s="14">
         <v>0.19</v>
       </c>
-      <c r="R70" s="68"/>
-      <c r="S70" s="68"/>
+      <c r="R70" s="98"/>
+      <c r="S70" s="98"/>
     </row>
     <row r="71">
-      <c r="A71" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="82">
+      <c r="A71" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="112">
         <v>1227000.0</v>
       </c>
-      <c r="C71" s="82">
+      <c r="C71" s="112">
         <v>475000.0</v>
       </c>
-      <c r="D71" s="68">
+      <c r="D71" s="98">
         <f>B62-B66-B70</f>
         <v>1267000</v>
       </c>
-      <c r="E71" s="68"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="I71" s="82">
+      <c r="E71" s="98"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="I71" s="112">
         <f>I62-I63-I64-I65-I66-I68-I70</f>
         <v>2781120</v>
       </c>
       <c r="J71" s="14"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="68"/>
-      <c r="O71" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="P71" s="82">
+      <c r="K71" s="98"/>
+      <c r="L71" s="98"/>
+      <c r="O71" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="P71" s="112">
         <f>P62-P63-P64-P65-P66-P68-P70</f>
         <v>6308360</v>
       </c>
-      <c r="R71" s="68"/>
-      <c r="S71" s="68"/>
+      <c r="R71" s="98"/>
+      <c r="S71" s="98"/>
     </row>
     <row r="72">
-      <c r="A72" s="67" t="s">
-        <v>85</v>
+      <c r="A72" s="97" t="s">
+        <v>95</v>
       </c>
       <c r="B72" s="14">
         <v>0.0</v>
@@ -3039,32 +3442,32 @@
       <c r="C72" s="14">
         <v>0.0</v>
       </c>
-      <c r="D72" s="68"/>
-      <c r="E72" s="68"/>
+      <c r="D72" s="98"/>
+      <c r="E72" s="98"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="67" t="s">
-        <v>85</v>
+      <c r="H72" s="97" t="s">
+        <v>95</v>
       </c>
       <c r="I72" s="14">
         <v>0.0</v>
       </c>
       <c r="J72" s="14"/>
-      <c r="K72" s="68"/>
-      <c r="L72" s="68"/>
-      <c r="O72" s="67" t="s">
-        <v>85</v>
+      <c r="K72" s="98"/>
+      <c r="L72" s="98"/>
+      <c r="O72" s="97" t="s">
+        <v>95</v>
       </c>
       <c r="P72" s="14">
         <v>0.0</v>
       </c>
       <c r="Q72" s="14"/>
-      <c r="R72" s="68"/>
-      <c r="S72" s="68"/>
+      <c r="R72" s="98"/>
+      <c r="S72" s="98"/>
     </row>
     <row r="73">
-      <c r="A73" s="67" t="s">
-        <v>86</v>
+      <c r="A73" s="97" t="s">
+        <v>96</v>
       </c>
       <c r="B73" s="14">
         <v>0.0</v>
@@ -3072,65 +3475,65 @@
       <c r="C73" s="14">
         <v>0.0</v>
       </c>
-      <c r="D73" s="68"/>
-      <c r="E73" s="68"/>
+      <c r="D73" s="98"/>
+      <c r="E73" s="98"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="67" t="s">
-        <v>86</v>
+      <c r="H73" s="97" t="s">
+        <v>96</v>
       </c>
       <c r="I73" s="14">
         <v>0.0</v>
       </c>
       <c r="J73" s="14"/>
-      <c r="K73" s="68"/>
-      <c r="L73" s="68"/>
-      <c r="O73" s="67" t="s">
-        <v>86</v>
+      <c r="K73" s="98"/>
+      <c r="L73" s="98"/>
+      <c r="O73" s="97" t="s">
+        <v>96</v>
       </c>
       <c r="P73" s="14">
         <v>0.0</v>
       </c>
       <c r="Q73" s="14"/>
-      <c r="R73" s="68"/>
-      <c r="S73" s="68"/>
+      <c r="R73" s="98"/>
+      <c r="S73" s="98"/>
     </row>
     <row r="74">
-      <c r="A74" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" s="73">
+      <c r="A74" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="103">
         <v>8000.0</v>
       </c>
       <c r="C74" s="14">
         <v>0.0</v>
       </c>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
+      <c r="D74" s="98"/>
+      <c r="E74" s="98"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="I74" s="73">
+      <c r="H74" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="I74" s="103">
         <v>8000.0</v>
       </c>
       <c r="J74" s="14"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
-      <c r="O74" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="P74" s="73">
+      <c r="K74" s="98"/>
+      <c r="L74" s="98"/>
+      <c r="O74" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="P74" s="103">
         <v>8000.0</v>
       </c>
       <c r="Q74" s="14"/>
-      <c r="R74" s="68"/>
-      <c r="S74" s="68"/>
+      <c r="R74" s="98"/>
+      <c r="S74" s="98"/>
     </row>
     <row r="75">
-      <c r="A75" s="67" t="s">
-        <v>88</v>
+      <c r="A75" s="97" t="s">
+        <v>98</v>
       </c>
       <c r="B75" s="14">
         <v>0.0</v>
@@ -3138,32 +3541,32 @@
       <c r="C75" s="14">
         <v>0.0</v>
       </c>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
+      <c r="D75" s="98"/>
+      <c r="E75" s="98"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="67" t="s">
-        <v>88</v>
+      <c r="H75" s="97" t="s">
+        <v>98</v>
       </c>
       <c r="I75" s="14">
         <v>0.0</v>
       </c>
       <c r="J75" s="14"/>
-      <c r="K75" s="68"/>
-      <c r="L75" s="68"/>
-      <c r="O75" s="67" t="s">
-        <v>88</v>
+      <c r="K75" s="98"/>
+      <c r="L75" s="98"/>
+      <c r="O75" s="97" t="s">
+        <v>98</v>
       </c>
       <c r="P75" s="14">
         <v>0.0</v>
       </c>
       <c r="Q75" s="14"/>
-      <c r="R75" s="68"/>
-      <c r="S75" s="68"/>
+      <c r="R75" s="98"/>
+      <c r="S75" s="98"/>
     </row>
     <row r="76">
-      <c r="A76" s="67" t="s">
-        <v>89</v>
+      <c r="A76" s="97" t="s">
+        <v>99</v>
       </c>
       <c r="B76" s="14">
         <v>0.0</v>
@@ -3171,65 +3574,65 @@
       <c r="C76" s="14">
         <v>0.0</v>
       </c>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
+      <c r="D76" s="98"/>
+      <c r="E76" s="98"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="67" t="s">
-        <v>89</v>
+      <c r="H76" s="97" t="s">
+        <v>99</v>
       </c>
       <c r="I76" s="14">
         <v>0.0</v>
       </c>
       <c r="J76" s="14"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="68"/>
-      <c r="O76" s="67" t="s">
-        <v>89</v>
+      <c r="K76" s="98"/>
+      <c r="L76" s="98"/>
+      <c r="O76" s="97" t="s">
+        <v>99</v>
       </c>
       <c r="P76" s="14">
         <v>0.0</v>
       </c>
       <c r="Q76" s="14"/>
-      <c r="R76" s="68"/>
-      <c r="S76" s="68"/>
+      <c r="R76" s="98"/>
+      <c r="S76" s="98"/>
     </row>
     <row r="77">
-      <c r="A77" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="B77" s="73">
+      <c r="A77" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="103">
         <v>8000.0</v>
       </c>
-      <c r="C77" s="73">
-        <v>0.0</v>
-      </c>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
+      <c r="C77" s="103">
+        <v>0.0</v>
+      </c>
+      <c r="D77" s="98"/>
+      <c r="E77" s="98"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="I77" s="73">
+      <c r="H77" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="I77" s="103">
         <v>8000.0</v>
       </c>
-      <c r="J77" s="73"/>
-      <c r="K77" s="68"/>
-      <c r="L77" s="68"/>
-      <c r="O77" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="P77" s="73">
+      <c r="J77" s="103"/>
+      <c r="K77" s="98"/>
+      <c r="L77" s="98"/>
+      <c r="O77" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="P77" s="103">
         <v>8000.0</v>
       </c>
-      <c r="Q77" s="73"/>
-      <c r="R77" s="68"/>
-      <c r="S77" s="68"/>
+      <c r="Q77" s="103"/>
+      <c r="R77" s="98"/>
+      <c r="S77" s="98"/>
     </row>
     <row r="78">
-      <c r="A78" s="67" t="s">
-        <v>91</v>
+      <c r="A78" s="97" t="s">
+        <v>101</v>
       </c>
       <c r="B78" s="14">
         <v>0.0</v>
@@ -3237,306 +3640,306 @@
       <c r="C78" s="14">
         <v>0.0</v>
       </c>
-      <c r="D78" s="68"/>
-      <c r="E78" s="68"/>
+      <c r="D78" s="98"/>
+      <c r="E78" s="98"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="67" t="s">
-        <v>91</v>
+      <c r="H78" s="97" t="s">
+        <v>102</v>
       </c>
       <c r="I78" s="14">
         <v>0.0</v>
       </c>
       <c r="J78" s="14"/>
-      <c r="K78" s="68"/>
-      <c r="L78" s="68"/>
-      <c r="O78" s="67" t="s">
-        <v>91</v>
+      <c r="K78" s="98"/>
+      <c r="L78" s="98"/>
+      <c r="O78" s="97" t="s">
+        <v>102</v>
       </c>
       <c r="P78" s="14">
         <v>0.0</v>
       </c>
       <c r="Q78" s="14"/>
-      <c r="R78" s="68"/>
-      <c r="S78" s="68"/>
+      <c r="R78" s="98"/>
+      <c r="S78" s="98"/>
     </row>
     <row r="79">
-      <c r="A79" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" s="83">
-        <f t="shared" ref="B79:C79" si="34">B62+B77</f>
+      <c r="A79" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="113">
+        <f t="shared" ref="B79:C79" si="37">B62+B77</f>
         <v>9172000</v>
       </c>
-      <c r="C79" s="83">
-        <f t="shared" si="34"/>
+      <c r="C79" s="113">
+        <f t="shared" si="37"/>
         <v>1631000</v>
       </c>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
+      <c r="D79" s="98"/>
+      <c r="E79" s="98"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="I79" s="83">
+      <c r="H79" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="I79" s="113">
         <f>I62+I77</f>
         <v>18336000</v>
       </c>
-      <c r="J79" s="84"/>
-      <c r="K79" s="68"/>
-      <c r="L79" s="68"/>
-      <c r="O79" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="P79" s="83">
+      <c r="J79" s="114"/>
+      <c r="K79" s="98"/>
+      <c r="L79" s="98"/>
+      <c r="O79" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="P79" s="113">
         <f>P62+P77</f>
         <v>36664000</v>
       </c>
-      <c r="Q79" s="84"/>
-      <c r="R79" s="68"/>
-      <c r="S79" s="68"/>
+      <c r="Q79" s="114"/>
+      <c r="R79" s="98"/>
+      <c r="S79" s="98"/>
     </row>
     <row r="80">
-      <c r="A80" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80" s="76">
+      <c r="A80" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="106">
         <v>41000.0</v>
       </c>
-      <c r="C80" s="76">
+      <c r="C80" s="106">
         <v>8000.0</v>
       </c>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
+      <c r="D80" s="98"/>
+      <c r="E80" s="98"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="I80" s="76">
+      <c r="H80" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="I80" s="106">
         <v>41000.0</v>
       </c>
-      <c r="J80" s="76"/>
-      <c r="K80" s="68"/>
-      <c r="L80" s="68"/>
-      <c r="O80" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="P80" s="76">
+      <c r="J80" s="106"/>
+      <c r="K80" s="98"/>
+      <c r="L80" s="98"/>
+      <c r="O80" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="P80" s="106">
         <v>41000.0</v>
       </c>
-      <c r="Q80" s="76"/>
-      <c r="R80" s="68"/>
-      <c r="S80" s="68"/>
+      <c r="Q80" s="106"/>
+      <c r="R80" s="98"/>
+      <c r="S80" s="98"/>
     </row>
     <row r="81">
-      <c r="A81" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" s="76">
+      <c r="A81" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="106">
         <v>2000.0</v>
       </c>
       <c r="C81" s="14">
         <v>0.0</v>
       </c>
-      <c r="D81" s="68"/>
-      <c r="E81" s="68"/>
+      <c r="D81" s="98"/>
+      <c r="E81" s="98"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="I81" s="76">
+      <c r="H81" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="I81" s="106">
         <v>2000.0</v>
       </c>
       <c r="J81" s="14"/>
-      <c r="K81" s="68"/>
-      <c r="L81" s="68"/>
-      <c r="O81" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="P81" s="76">
+      <c r="K81" s="98"/>
+      <c r="L81" s="98"/>
+      <c r="O81" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="P81" s="106">
         <v>2000.0</v>
       </c>
       <c r="Q81" s="14"/>
-      <c r="R81" s="68"/>
-      <c r="S81" s="68"/>
+      <c r="R81" s="98"/>
+      <c r="S81" s="98"/>
     </row>
     <row r="82">
-      <c r="A82" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="B82" s="76">
+      <c r="A82" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="106">
         <v>2000.0</v>
       </c>
-      <c r="C82" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
+      <c r="C82" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="98"/>
+      <c r="E82" s="98"/>
       <c r="G82" s="14"/>
-      <c r="H82" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="I82" s="76">
+      <c r="H82" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="I82" s="106">
         <v>2000.0</v>
       </c>
-      <c r="J82" s="76"/>
-      <c r="K82" s="68"/>
-      <c r="L82" s="68"/>
-      <c r="O82" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="P82" s="76">
+      <c r="J82" s="106"/>
+      <c r="K82" s="98"/>
+      <c r="L82" s="98"/>
+      <c r="O82" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="P82" s="106">
         <v>2000.0</v>
       </c>
-      <c r="Q82" s="76"/>
-      <c r="R82" s="68"/>
-      <c r="S82" s="68"/>
+      <c r="Q82" s="106"/>
+      <c r="R82" s="98"/>
+      <c r="S82" s="98"/>
     </row>
     <row r="83">
-      <c r="A83" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" s="76">
+      <c r="A83" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="106">
         <v>43000.0</v>
       </c>
       <c r="C83" s="14">
         <v>8000.0</v>
       </c>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
+      <c r="D83" s="98"/>
+      <c r="E83" s="98"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="I83" s="76">
+      <c r="H83" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="I83" s="106">
         <v>43000.0</v>
       </c>
       <c r="J83" s="14"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="68"/>
-      <c r="O83" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="P83" s="76">
+      <c r="K83" s="98"/>
+      <c r="L83" s="98"/>
+      <c r="O83" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="P83" s="106">
         <v>43000.0</v>
       </c>
       <c r="Q83" s="14"/>
-      <c r="R83" s="68"/>
-      <c r="S83" s="68"/>
+      <c r="R83" s="98"/>
+      <c r="S83" s="98"/>
     </row>
     <row r="84">
-      <c r="A84" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84" s="83">
+      <c r="A84" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="113">
         <f>B82+B80+B70+B64+B66+B68+B63</f>
         <v>7980000</v>
       </c>
-      <c r="C84" s="83">
+      <c r="C84" s="113">
         <f>C82+C80+C70+C64+C66+C68</f>
         <v>1163000</v>
       </c>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="H84" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="I84" s="83">
+      <c r="D84" s="98"/>
+      <c r="E84" s="98"/>
+      <c r="H84" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="I84" s="113">
         <f>I82+I80+I70+I64+I66+I68+I63</f>
         <v>15589880</v>
       </c>
-      <c r="J84" s="84"/>
-      <c r="K84" s="68"/>
-      <c r="L84" s="68"/>
-      <c r="O84" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="P84" s="83">
+      <c r="J84" s="114"/>
+      <c r="K84" s="98"/>
+      <c r="L84" s="98"/>
+      <c r="O84" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="P84" s="113">
         <f>P82+P80+P70+P64+P66+P68+P63</f>
         <v>30390640</v>
       </c>
-      <c r="Q84" s="84"/>
-      <c r="R84" s="68"/>
-      <c r="S84" s="68"/>
+      <c r="Q84" s="114"/>
+      <c r="R84" s="98"/>
+      <c r="S84" s="98"/>
     </row>
     <row r="85">
-      <c r="A85" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="B85" s="83">
+      <c r="A85" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="113">
         <v>1192000.0</v>
       </c>
-      <c r="C85" s="83">
+      <c r="C85" s="113">
         <v>467000.0</v>
       </c>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
+      <c r="D85" s="98"/>
+      <c r="E85" s="98"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="I85" s="83">
+      <c r="H85" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="I85" s="113">
         <f>I71-I83+I77</f>
         <v>2746120</v>
       </c>
-      <c r="J85" s="84"/>
-      <c r="K85" s="68"/>
-      <c r="L85" s="68"/>
-      <c r="O85" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="P85" s="83">
+      <c r="J85" s="114"/>
+      <c r="K85" s="98"/>
+      <c r="L85" s="98"/>
+      <c r="O85" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="P85" s="113">
         <f>P71-P83+P77</f>
         <v>6273360</v>
       </c>
-      <c r="Q85" s="84"/>
-      <c r="R85" s="68"/>
-      <c r="S85" s="68"/>
+      <c r="Q85" s="114"/>
+      <c r="R85" s="98"/>
+      <c r="S85" s="98"/>
     </row>
     <row r="86">
-      <c r="A86" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="B86" s="76">
+      <c r="A86" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="106">
         <v>293000.0</v>
       </c>
-      <c r="C86" s="76">
+      <c r="C86" s="106">
         <v>106000.0</v>
       </c>
-      <c r="D86" s="80">
-        <f t="shared" ref="D86:E86" si="35">B86/B85</f>
+      <c r="D86" s="110">
+        <f t="shared" ref="D86:E86" si="38">B86/B85</f>
         <v>0.2458053691</v>
       </c>
-      <c r="E86" s="80">
-        <f t="shared" si="35"/>
+      <c r="E86" s="110">
+        <f t="shared" si="38"/>
         <v>0.2269807281</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="I86" s="75">
+      <c r="H86" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="I86" s="105">
         <f>I85*J86</f>
         <v>686530</v>
       </c>
-      <c r="J86" s="85">
+      <c r="J86" s="115">
         <v>0.25</v>
       </c>
-      <c r="L86" s="80"/>
-      <c r="O86" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="P86" s="75">
+      <c r="L86" s="110"/>
+      <c r="O86" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="P86" s="105">
         <f>P85*Q86</f>
         <v>1568340</v>
       </c>
-      <c r="Q86" s="85">
+      <c r="Q86" s="115">
         <v>0.25</v>
       </c>
-      <c r="S86" s="80"/>
+      <c r="S86" s="110"/>
     </row>
     <row r="87">
-      <c r="A87" s="67" t="s">
-        <v>100</v>
+      <c r="A87" s="97" t="s">
+        <v>111</v>
       </c>
       <c r="B87" s="14">
         <v>899000.0</v>
@@ -3544,33 +3947,33 @@
       <c r="C87" s="14">
         <v>362000.0</v>
       </c>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
+      <c r="D87" s="98"/>
+      <c r="E87" s="98"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="67" t="s">
-        <v>100</v>
+      <c r="H87" s="97" t="s">
+        <v>111</v>
       </c>
       <c r="I87" s="14">
         <f>I85-I86</f>
         <v>2059590</v>
       </c>
       <c r="J87" s="14"/>
-      <c r="K87" s="68"/>
-      <c r="L87" s="68"/>
-      <c r="O87" s="67" t="s">
-        <v>100</v>
+      <c r="K87" s="98"/>
+      <c r="L87" s="98"/>
+      <c r="O87" s="97" t="s">
+        <v>111</v>
       </c>
       <c r="P87" s="14">
         <f>P85-P86</f>
         <v>4705020</v>
       </c>
       <c r="Q87" s="14"/>
-      <c r="R87" s="68"/>
-      <c r="S87" s="68"/>
+      <c r="R87" s="98"/>
+      <c r="S87" s="98"/>
     </row>
     <row r="88">
-      <c r="A88" s="67" t="s">
-        <v>101</v>
+      <c r="A88" s="97" t="s">
+        <v>112</v>
       </c>
       <c r="B88" s="14">
         <v>0.0</v>
@@ -3578,31 +3981,31 @@
       <c r="C88" s="14">
         <v>0.0</v>
       </c>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
+      <c r="D88" s="98"/>
+      <c r="E88" s="98"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="67" t="s">
-        <v>101</v>
+      <c r="H88" s="97" t="s">
+        <v>112</v>
       </c>
       <c r="I88" s="14">
         <v>0.0</v>
       </c>
       <c r="J88" s="14"/>
-      <c r="K88" s="68"/>
-      <c r="L88" s="68"/>
-      <c r="O88" s="67" t="s">
-        <v>101</v>
+      <c r="K88" s="98"/>
+      <c r="L88" s="98"/>
+      <c r="O88" s="97" t="s">
+        <v>112</v>
       </c>
       <c r="P88" s="14">
         <v>0.0</v>
       </c>
       <c r="Q88" s="14"/>
-      <c r="R88" s="68"/>
-      <c r="S88" s="68"/>
+      <c r="R88" s="98"/>
+      <c r="S88" s="98"/>
     </row>
     <row r="89">
-      <c r="A89" s="67" t="s">
-        <v>102</v>
+      <c r="A89" s="97" t="s">
+        <v>113</v>
       </c>
       <c r="B89" s="14">
         <v>0.0</v>
@@ -3610,31 +4013,31 @@
       <c r="C89" s="14">
         <v>0.0</v>
       </c>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
+      <c r="D89" s="98"/>
+      <c r="E89" s="98"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="67" t="s">
-        <v>102</v>
+      <c r="H89" s="97" t="s">
+        <v>113</v>
       </c>
       <c r="I89" s="14">
         <v>0.0</v>
       </c>
       <c r="J89" s="14"/>
-      <c r="K89" s="68"/>
-      <c r="L89" s="68"/>
-      <c r="O89" s="67" t="s">
-        <v>102</v>
+      <c r="K89" s="98"/>
+      <c r="L89" s="98"/>
+      <c r="O89" s="97" t="s">
+        <v>113</v>
       </c>
       <c r="P89" s="14">
         <v>0.0</v>
       </c>
       <c r="Q89" s="14"/>
-      <c r="R89" s="68"/>
-      <c r="S89" s="68"/>
+      <c r="R89" s="98"/>
+      <c r="S89" s="98"/>
     </row>
     <row r="90">
-      <c r="A90" s="67" t="s">
-        <v>103</v>
+      <c r="A90" s="97" t="s">
+        <v>114</v>
       </c>
       <c r="B90" s="14">
         <v>0.0</v>
@@ -3642,97 +4045,97 @@
       <c r="C90" s="14">
         <v>0.0</v>
       </c>
-      <c r="D90" s="68"/>
-      <c r="E90" s="68"/>
+      <c r="D90" s="98"/>
+      <c r="E90" s="98"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="67" t="s">
-        <v>103</v>
+      <c r="H90" s="97" t="s">
+        <v>114</v>
       </c>
       <c r="I90" s="14">
         <v>0.0</v>
       </c>
       <c r="J90" s="14"/>
-      <c r="K90" s="68"/>
-      <c r="L90" s="68"/>
-      <c r="O90" s="67" t="s">
-        <v>103</v>
+      <c r="K90" s="98"/>
+      <c r="L90" s="98"/>
+      <c r="O90" s="97" t="s">
+        <v>114</v>
       </c>
       <c r="P90" s="14">
         <v>0.0</v>
       </c>
       <c r="Q90" s="14"/>
-      <c r="R90" s="68"/>
-      <c r="S90" s="68"/>
+      <c r="R90" s="98"/>
+      <c r="S90" s="98"/>
     </row>
     <row r="91">
-      <c r="A91" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B91" s="82">
+      <c r="A91" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="112">
         <v>899000.0</v>
       </c>
-      <c r="C91" s="82">
+      <c r="C91" s="112">
         <v>362000.0</v>
       </c>
-      <c r="D91" s="68"/>
-      <c r="E91" s="68"/>
-      <c r="F91" s="86"/>
-      <c r="G91" s="86"/>
-      <c r="H91" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="I91" s="82">
+      <c r="D91" s="98"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="116"/>
+      <c r="G91" s="116"/>
+      <c r="H91" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="I91" s="112">
         <f>I87+I88-I89-I90</f>
         <v>2059590</v>
       </c>
       <c r="J91" s="14"/>
-      <c r="K91" s="68"/>
-      <c r="L91" s="68"/>
-      <c r="O91" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="P91" s="82">
+      <c r="K91" s="98"/>
+      <c r="L91" s="98"/>
+      <c r="O91" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="P91" s="112">
         <f>P87+P88-P89-P90</f>
         <v>4705020</v>
       </c>
       <c r="Q91" s="14"/>
-      <c r="R91" s="68"/>
-      <c r="S91" s="68"/>
+      <c r="R91" s="98"/>
+      <c r="S91" s="98"/>
     </row>
     <row r="92">
-      <c r="A92" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" s="76">
+      <c r="A92" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" s="106">
         <v>1000000.0</v>
       </c>
       <c r="C92" s="14">
         <v>0.0</v>
       </c>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="H92" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="I92" s="76">
+      <c r="D92" s="98"/>
+      <c r="E92" s="98"/>
+      <c r="H92" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="I92" s="106">
         <v>1000000.0</v>
       </c>
       <c r="J92" s="14"/>
-      <c r="K92" s="68"/>
-      <c r="L92" s="68"/>
-      <c r="O92" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="P92" s="76">
+      <c r="K92" s="98"/>
+      <c r="L92" s="98"/>
+      <c r="O92" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="P92" s="106">
         <v>1000000.0</v>
       </c>
       <c r="Q92" s="14"/>
-      <c r="R92" s="68"/>
-      <c r="S92" s="68"/>
+      <c r="R92" s="98"/>
+      <c r="S92" s="98"/>
     </row>
     <row r="93">
-      <c r="A93" s="67" t="s">
-        <v>105</v>
+      <c r="A93" s="97" t="s">
+        <v>116</v>
       </c>
       <c r="B93" s="14">
         <v>0.0</v>
@@ -3740,31 +4143,31 @@
       <c r="C93" s="14">
         <v>0.0</v>
       </c>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
+      <c r="D93" s="98"/>
+      <c r="E93" s="98"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="67" t="s">
-        <v>105</v>
+      <c r="H93" s="97" t="s">
+        <v>116</v>
       </c>
       <c r="I93" s="14">
         <v>0.0</v>
       </c>
       <c r="J93" s="14"/>
-      <c r="K93" s="68"/>
-      <c r="L93" s="68"/>
-      <c r="O93" s="67" t="s">
-        <v>105</v>
+      <c r="K93" s="98"/>
+      <c r="L93" s="98"/>
+      <c r="O93" s="97" t="s">
+        <v>116</v>
       </c>
       <c r="P93" s="14">
         <v>0.0</v>
       </c>
       <c r="Q93" s="14"/>
-      <c r="R93" s="68"/>
-      <c r="S93" s="68"/>
+      <c r="R93" s="98"/>
+      <c r="S93" s="98"/>
     </row>
     <row r="94">
-      <c r="A94" s="67" t="s">
-        <v>106</v>
+      <c r="A94" s="97" t="s">
+        <v>117</v>
       </c>
       <c r="B94" s="14">
         <v>0.0</v>
@@ -3772,63 +4175,63 @@
       <c r="C94" s="14">
         <v>0.0</v>
       </c>
-      <c r="D94" s="68"/>
-      <c r="E94" s="68"/>
+      <c r="D94" s="98"/>
+      <c r="E94" s="98"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="67" t="s">
-        <v>106</v>
+      <c r="H94" s="97" t="s">
+        <v>117</v>
       </c>
       <c r="I94" s="14">
         <v>0.0</v>
       </c>
       <c r="J94" s="14"/>
-      <c r="K94" s="68"/>
-      <c r="L94" s="68"/>
-      <c r="O94" s="67" t="s">
-        <v>106</v>
+      <c r="K94" s="98"/>
+      <c r="L94" s="98"/>
+      <c r="O94" s="97" t="s">
+        <v>117</v>
       </c>
       <c r="P94" s="14">
         <v>0.0</v>
       </c>
       <c r="Q94" s="14"/>
-      <c r="R94" s="68"/>
-      <c r="S94" s="68"/>
+      <c r="R94" s="98"/>
+      <c r="S94" s="98"/>
     </row>
     <row r="95">
-      <c r="A95" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" s="76">
+      <c r="A95" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" s="106">
         <v>1000000.0</v>
       </c>
-      <c r="C95" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="D95" s="68"/>
-      <c r="E95" s="68"/>
+      <c r="C95" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="D95" s="98"/>
+      <c r="E95" s="98"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="I95" s="76">
+      <c r="H95" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="I95" s="106">
         <v>1000000.0</v>
       </c>
-      <c r="J95" s="76"/>
-      <c r="K95" s="68"/>
-      <c r="L95" s="68"/>
-      <c r="O95" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="P95" s="76">
+      <c r="J95" s="106"/>
+      <c r="K95" s="98"/>
+      <c r="L95" s="98"/>
+      <c r="O95" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="P95" s="106">
         <v>1000000.0</v>
       </c>
-      <c r="Q95" s="76"/>
-      <c r="R95" s="68"/>
-      <c r="S95" s="68"/>
+      <c r="Q95" s="106"/>
+      <c r="R95" s="98"/>
+      <c r="S95" s="98"/>
     </row>
     <row r="96">
-      <c r="A96" s="67" t="s">
-        <v>108</v>
+      <c r="A96" s="97" t="s">
+        <v>119</v>
       </c>
       <c r="B96" s="14">
         <v>0.0</v>
@@ -3836,27 +4239,27 @@
       <c r="C96" s="14">
         <v>0.0</v>
       </c>
-      <c r="D96" s="68"/>
-      <c r="E96" s="68"/>
+      <c r="D96" s="98"/>
+      <c r="E96" s="98"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="67" t="s">
-        <v>108</v>
+      <c r="H96" s="97" t="s">
+        <v>119</v>
       </c>
       <c r="I96" s="14">
         <v>0.0</v>
       </c>
       <c r="J96" s="14"/>
-      <c r="K96" s="68"/>
-      <c r="L96" s="68"/>
-      <c r="O96" s="67" t="s">
-        <v>108</v>
+      <c r="K96" s="98"/>
+      <c r="L96" s="98"/>
+      <c r="O96" s="97" t="s">
+        <v>119</v>
       </c>
       <c r="P96" s="14">
         <v>0.0</v>
       </c>
       <c r="Q96" s="14"/>
-      <c r="R96" s="68"/>
-      <c r="S96" s="68"/>
+      <c r="R96" s="98"/>
+      <c r="S96" s="98"/>
     </row>
     <row r="97">
       <c r="B97" s="11"/>
@@ -3875,704 +4278,1231 @@
     <row r="99">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" hidden="1">
-      <c r="A100" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B100" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="G100" s="3"/>
+      <c r="D99" s="101"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="5"/>
+      <c r="B100" s="117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D100" s="118"/>
+      <c r="F100" s="101"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+      <c r="W100" s="5"/>
+      <c r="X100" s="5"/>
     </row>
     <row r="101">
-      <c r="A101" s="1"/>
-      <c r="B101" s="78"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="G101" s="3"/>
-    </row>
-    <row r="102" hidden="1">
-      <c r="A102" s="5"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="78"/>
-      <c r="E102" s="5"/>
-      <c r="G102" s="3"/>
+      <c r="A101" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" s="121"/>
+      <c r="D101" s="122"/>
+      <c r="E101" s="122"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="J101" s="124" t="s">
+        <v>123</v>
+      </c>
+      <c r="K101" s="124" t="s">
+        <v>64</v>
+      </c>
+      <c r="L101" s="123" t="s">
+        <v>124</v>
+      </c>
+      <c r="M101" s="123" t="s">
+        <v>124</v>
+      </c>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="B102" s="14">
+        <v>1.8328E7</v>
+      </c>
+      <c r="C102" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="D102" s="125"/>
+      <c r="E102" s="125"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="I102" s="127">
+        <v>1.0</v>
+      </c>
+      <c r="J102" s="127">
+        <v>8.0</v>
+      </c>
+      <c r="K102" s="127">
+        <v>230.0</v>
+      </c>
+      <c r="L102" s="128">
+        <f t="shared" ref="L102:M102" si="39">L103</f>
+        <v>15</v>
+      </c>
+      <c r="M102" s="128">
+        <f t="shared" si="39"/>
+        <v>15</v>
+      </c>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="5"/>
     </row>
     <row r="103">
-      <c r="A103" s="1"/>
-      <c r="B103" s="78"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="78"/>
-      <c r="E103" s="5"/>
-      <c r="G103" s="3"/>
+      <c r="A103" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C103" s="99">
+        <v>0.02</v>
+      </c>
+      <c r="D103" s="125"/>
+      <c r="E103" s="125"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="I103" s="130">
+        <f t="shared" ref="I103:M103" si="40">$B$36</f>
+        <v>15</v>
+      </c>
+      <c r="J103" s="130">
+        <f t="shared" si="40"/>
+        <v>15</v>
+      </c>
+      <c r="K103" s="130">
+        <f t="shared" si="40"/>
+        <v>15</v>
+      </c>
+      <c r="L103" s="130">
+        <f t="shared" si="40"/>
+        <v>15</v>
+      </c>
+      <c r="M103" s="130">
+        <f t="shared" si="40"/>
+        <v>15</v>
+      </c>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
     </row>
     <row r="104">
-      <c r="A104" s="1"/>
-      <c r="B104" s="78"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="78"/>
-      <c r="E104" s="5"/>
-      <c r="G104" s="3"/>
+      <c r="A104" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="B104" s="11">
+        <v>2.4437333333333332E7</v>
+      </c>
+      <c r="C104" s="102"/>
+      <c r="D104" s="125"/>
+      <c r="E104" s="131"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="129" t="s">
+        <v>127</v>
+      </c>
+      <c r="I104" s="132">
+        <v>2443.74</v>
+      </c>
+      <c r="J104" s="132">
+        <v>2443.74</v>
+      </c>
+      <c r="K104" s="132">
+        <v>2443.74</v>
+      </c>
+      <c r="L104" s="132">
+        <v>2443.74</v>
+      </c>
+      <c r="M104" s="132">
+        <v>2443.74</v>
+      </c>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="5"/>
+      <c r="X104" s="5"/>
     </row>
     <row r="105">
-      <c r="A105" s="78"/>
-      <c r="B105" s="71"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="78"/>
-      <c r="E105" s="5"/>
-      <c r="G105" s="3"/>
+      <c r="A105" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B105" s="103">
+        <v>1.8328E7</v>
+      </c>
+      <c r="C105" s="103"/>
+      <c r="D105" s="125"/>
+      <c r="E105" s="131"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="126" t="s">
+        <v>128</v>
+      </c>
+      <c r="I105" s="127">
+        <v>5000.0</v>
+      </c>
+      <c r="J105" s="127">
+        <v>5000.0</v>
+      </c>
+      <c r="K105" s="127">
+        <v>5000.0</v>
+      </c>
+      <c r="L105" s="127">
+        <v>5000.0</v>
+      </c>
+      <c r="M105" s="127">
+        <v>5000.0</v>
+      </c>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="5"/>
+      <c r="X105" s="5"/>
     </row>
     <row r="106">
-      <c r="A106" s="78"/>
-      <c r="B106" s="71"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="78"/>
-      <c r="E106" s="5"/>
-      <c r="G106" s="3"/>
-    </row>
-    <row r="107" hidden="1">
-      <c r="A107" s="1"/>
-      <c r="B107" s="78"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="78"/>
-      <c r="E107" s="5"/>
-      <c r="G107" s="3"/>
-    </row>
-    <row r="108" hidden="1">
-      <c r="A108" s="1"/>
-      <c r="B108" s="78"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="78"/>
-      <c r="E108" s="5"/>
-      <c r="G108" s="3"/>
-    </row>
-    <row r="109" hidden="1">
-      <c r="A109" s="1"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="78"/>
-      <c r="E109" s="5"/>
-      <c r="G109" s="3"/>
+      <c r="A106" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" s="104">
+        <v>1000.0</v>
+      </c>
+      <c r="C106" s="105"/>
+      <c r="D106" s="125"/>
+      <c r="E106" s="131"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="133" t="s">
+        <v>84</v>
+      </c>
+      <c r="I106" s="108">
+        <f>B61</f>
+        <v>12218666.67</v>
+      </c>
+      <c r="J106" s="108">
+        <f t="shared" ref="J106:K106" si="41">$I106/J$102</f>
+        <v>1527333.333</v>
+      </c>
+      <c r="K106" s="108">
+        <f t="shared" si="41"/>
+        <v>53124.63768</v>
+      </c>
+      <c r="L106" s="108">
+        <f t="shared" ref="L106:M106" si="42">$I106/L$103</f>
+        <v>814577.7778</v>
+      </c>
+      <c r="M106" s="134">
+        <f t="shared" si="42"/>
+        <v>814577.7778</v>
+      </c>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="5"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" s="106">
+        <v>12000.0</v>
+      </c>
+      <c r="C107" s="106"/>
+      <c r="D107" s="125"/>
+      <c r="E107" s="131"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="135" t="s">
+        <v>53</v>
+      </c>
+      <c r="I107" s="134">
+        <f>I106-I108</f>
+        <v>3054666.667</v>
+      </c>
+      <c r="J107" s="134">
+        <f t="shared" ref="J107:K107" si="43">$I107/J$102</f>
+        <v>381833.3333</v>
+      </c>
+      <c r="K107" s="134">
+        <f t="shared" si="43"/>
+        <v>13281.15942</v>
+      </c>
+      <c r="L107" s="134">
+        <f t="shared" ref="L107:M107" si="44">$I107/L$103</f>
+        <v>203644.4444</v>
+      </c>
+      <c r="M107" s="134">
+        <f t="shared" si="44"/>
+        <v>203644.4444</v>
+      </c>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5"/>
+      <c r="X107" s="5"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="106">
+        <f>38860*12</f>
+        <v>466320</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="125"/>
+      <c r="E108" s="125"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="136" t="s">
+        <v>130</v>
+      </c>
+      <c r="I108" s="134">
+        <f>B62</f>
+        <v>9164000</v>
+      </c>
+      <c r="J108" s="134">
+        <f t="shared" ref="J108:K108" si="45">$I108/J$102</f>
+        <v>1145500</v>
+      </c>
+      <c r="K108" s="134">
+        <f t="shared" si="45"/>
+        <v>39843.47826</v>
+      </c>
+      <c r="L108" s="134">
+        <f t="shared" ref="L108:M108" si="46">$I108/L$103</f>
+        <v>610933.3333</v>
+      </c>
+      <c r="M108" s="137">
+        <f t="shared" si="46"/>
+        <v>610933.3333</v>
+      </c>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
+      <c r="W108" s="5"/>
+      <c r="X108" s="5"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="125"/>
+      <c r="E109" s="125"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="138" t="s">
+        <v>131</v>
+      </c>
+      <c r="I109" s="137">
+        <f>($B$63+$B$64+$B$68+$B$70+$B$83)/I$102</f>
+        <v>2151000</v>
+      </c>
+      <c r="J109" s="137">
+        <f t="shared" ref="J109:M109" si="47">($I$63+$I$64+$I$68+$I$70+$I$83)/J$102</f>
+        <v>491485</v>
+      </c>
+      <c r="K109" s="137">
+        <f t="shared" si="47"/>
+        <v>17095.13043</v>
+      </c>
+      <c r="L109" s="137">
+        <f t="shared" si="47"/>
+        <v>262125.3333</v>
+      </c>
+      <c r="M109" s="137">
+        <f t="shared" si="47"/>
+        <v>262125.3333</v>
+      </c>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
+      <c r="W109" s="5"/>
+      <c r="X109" s="5"/>
     </row>
     <row r="110">
-      <c r="A110" s="1"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="G110" s="3"/>
-    </row>
-    <row r="111" ht="18.0" hidden="1" customHeight="1">
-      <c r="A111" s="1"/>
-      <c r="B111" s="78"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="G111" s="3"/>
-    </row>
-    <row r="112" hidden="1">
-      <c r="A112" s="1"/>
-      <c r="B112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="G112" s="3"/>
-    </row>
-    <row r="113" hidden="1">
-      <c r="A113" s="78"/>
-      <c r="B113" s="71"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="G113" s="3"/>
+      <c r="A110" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" s="106">
+        <v>1.1658E7</v>
+      </c>
+      <c r="C110" s="106"/>
+      <c r="D110" s="125"/>
+      <c r="E110" s="125"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="139" t="s">
+        <v>132</v>
+      </c>
+      <c r="I110" s="140">
+        <f t="shared" ref="I110:L110" si="48">I106-I109-I111</f>
+        <v>9067666.667</v>
+      </c>
+      <c r="J110" s="140">
+        <f t="shared" si="48"/>
+        <v>910848.3333</v>
+      </c>
+      <c r="K110" s="140">
+        <f t="shared" si="48"/>
+        <v>31681.68116</v>
+      </c>
+      <c r="L110" s="140">
+        <f t="shared" si="48"/>
+        <v>485785.7778</v>
+      </c>
+      <c r="M110" s="140">
+        <f>M108-M109-M111</f>
+        <v>282141.3333</v>
+      </c>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="5"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="5"/>
+      <c r="V110" s="5"/>
+      <c r="W110" s="5"/>
+      <c r="X110" s="5"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B111" s="14">
+        <v>9724000.0</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="141"/>
+      <c r="E111" s="141"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="142" t="s">
+        <v>133</v>
+      </c>
+      <c r="I111" s="143">
+        <f t="shared" ref="I111:M111" si="49">$I$92/I$102</f>
+        <v>1000000</v>
+      </c>
+      <c r="J111" s="143">
+        <f t="shared" si="49"/>
+        <v>125000</v>
+      </c>
+      <c r="K111" s="143">
+        <f t="shared" si="49"/>
+        <v>4347.826087</v>
+      </c>
+      <c r="L111" s="143">
+        <f t="shared" si="49"/>
+        <v>66666.66667</v>
+      </c>
+      <c r="M111" s="143">
+        <f t="shared" si="49"/>
+        <v>66666.66667</v>
+      </c>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="5"/>
+      <c r="W111" s="5"/>
+      <c r="X111" s="5"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="B112" s="106">
+        <v>27000.0</v>
+      </c>
+      <c r="C112" s="106"/>
+      <c r="D112" s="125"/>
+      <c r="E112" s="125"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="135" t="s">
+        <v>134</v>
+      </c>
+      <c r="I112" s="134">
+        <f t="shared" ref="I112:M112" si="50">($B$63+$B$66+$B$64+$B$70+$B$83+$B$95)/I$102</f>
+        <v>8953000</v>
+      </c>
+      <c r="J112" s="134">
+        <f t="shared" si="50"/>
+        <v>1119125</v>
+      </c>
+      <c r="K112" s="134">
+        <f t="shared" si="50"/>
+        <v>38926.08696</v>
+      </c>
+      <c r="L112" s="134">
+        <f t="shared" si="50"/>
+        <v>596866.6667</v>
+      </c>
+      <c r="M112" s="134">
+        <f t="shared" si="50"/>
+        <v>596866.6667</v>
+      </c>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="5"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="5"/>
+      <c r="V112" s="5"/>
+      <c r="W112" s="5"/>
+      <c r="X112" s="5"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="125"/>
+      <c r="E113" s="125"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="139" t="s">
+        <v>135</v>
+      </c>
+      <c r="I113" s="140">
+        <f t="shared" ref="I113:M113" si="51">I110-I111</f>
+        <v>8067666.667</v>
+      </c>
+      <c r="J113" s="140">
+        <f t="shared" si="51"/>
+        <v>785848.3333</v>
+      </c>
+      <c r="K113" s="140">
+        <f t="shared" si="51"/>
+        <v>27333.85507</v>
+      </c>
+      <c r="L113" s="140">
+        <f t="shared" si="51"/>
+        <v>419119.1111</v>
+      </c>
+      <c r="M113" s="140">
+        <f t="shared" si="51"/>
+        <v>215474.6667</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
     </row>
     <row r="114">
-      <c r="A114" s="86"/>
-      <c r="B114" s="86"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="G114" s="3"/>
-    </row>
-    <row r="115" hidden="1">
-      <c r="A115" s="86"/>
-      <c r="B115" s="86"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="G115" s="3"/>
+      <c r="A114" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" s="106">
+        <v>3848880.0</v>
+      </c>
+      <c r="C114" s="105">
+        <v>0.21</v>
+      </c>
+      <c r="D114" s="125"/>
+      <c r="E114" s="125"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="L114" s="137">
+        <f t="shared" ref="L114:M114" si="52">L113/12</f>
+        <v>34926.59259</v>
+      </c>
+      <c r="M114" s="137">
+        <f t="shared" si="52"/>
+        <v>17956.22222</v>
+      </c>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+      <c r="W114" s="5"/>
+      <c r="X114" s="5"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B115" s="113">
+        <f>2781120-B108</f>
+        <v>2314800</v>
+      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="125"/>
+      <c r="E115" s="125"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="144"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="137">
+        <f t="shared" ref="L115:M115" si="53">L113/230</f>
+        <v>1822.257005</v>
+      </c>
+      <c r="M115" s="137">
+        <f t="shared" si="53"/>
+        <v>936.8463768</v>
+      </c>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="5"/>
+      <c r="V115" s="5"/>
+      <c r="W115" s="5"/>
+      <c r="X115" s="5"/>
     </row>
     <row r="116">
-      <c r="A116" s="1"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="G116" s="3"/>
+      <c r="A116" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B116" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C116" s="14"/>
+      <c r="D116" s="125"/>
+      <c r="E116" s="125"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="144"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="137">
+        <f t="shared" ref="L116:M116" si="54">L115/8</f>
+        <v>227.7821256</v>
+      </c>
+      <c r="M116" s="137">
+        <f t="shared" si="54"/>
+        <v>117.1057971</v>
+      </c>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
+      <c r="S116" s="5"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="5"/>
+      <c r="V116" s="5"/>
+      <c r="W116" s="5"/>
+      <c r="X116" s="5"/>
     </row>
     <row r="117">
-      <c r="A117" s="1"/>
-      <c r="B117" s="78"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="3"/>
+      <c r="A117" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B117" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="125"/>
+      <c r="E117" s="125"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="144"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
+      <c r="S117" s="5"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="5"/>
+      <c r="V117" s="5"/>
+      <c r="W117" s="5"/>
+      <c r="X117" s="5"/>
     </row>
     <row r="118">
-      <c r="F118" s="11"/>
-      <c r="G118" s="3"/>
+      <c r="A118" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B118" s="103">
+        <v>8000.0</v>
+      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="125"/>
+      <c r="E118" s="125"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="144"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5"/>
+      <c r="S118" s="5"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="5"/>
+      <c r="V118" s="5"/>
+      <c r="W118" s="5"/>
+      <c r="X118" s="5"/>
     </row>
     <row r="119">
-      <c r="A119" s="3"/>
-      <c r="B119" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="D119" s="63"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="3"/>
+      <c r="A119" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B119" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="125"/>
+      <c r="E119" s="125"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="144"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5"/>
+      <c r="V119" s="5"/>
+      <c r="W119" s="5"/>
+      <c r="X119" s="5"/>
     </row>
     <row r="120">
-      <c r="A120" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B120" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C120" s="65"/>
-      <c r="D120" s="66"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
+      <c r="A120" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B120" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C120" s="14"/>
+      <c r="D120" s="125"/>
+      <c r="E120" s="125"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="144"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="5"/>
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5"/>
+      <c r="V120" s="5"/>
+      <c r="W120" s="5"/>
+      <c r="X120" s="5"/>
     </row>
     <row r="121">
-      <c r="A121" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B121" s="14">
-        <v>1.8328E7</v>
-      </c>
-      <c r="C121" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="D121" s="68"/>
-      <c r="E121" s="68"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
+      <c r="A121" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B121" s="103">
+        <v>8000.0</v>
+      </c>
+      <c r="C121" s="103"/>
+      <c r="D121" s="125"/>
+      <c r="E121" s="125"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="144"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="5"/>
+      <c r="X121" s="5"/>
     </row>
     <row r="122">
-      <c r="A122" s="67" t="s">
-        <v>73</v>
+      <c r="A122" s="97" t="s">
+        <v>102</v>
       </c>
       <c r="B122" s="14">
         <v>0.0</v>
       </c>
-      <c r="C122" s="69">
-        <v>0.02</v>
-      </c>
-      <c r="D122" s="68"/>
-      <c r="E122" s="68"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="125"/>
+      <c r="E122" s="125"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="144"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
     </row>
     <row r="123">
-      <c r="A123" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B123" s="11">
-        <v>2.4437333333333332E7</v>
-      </c>
-      <c r="C123" s="72"/>
-      <c r="D123" s="68"/>
-      <c r="E123" s="70"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
+      <c r="A123" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B123" s="145">
+        <v>1.8336E7</v>
+      </c>
+      <c r="C123" s="114"/>
+      <c r="D123" s="125"/>
+      <c r="E123" s="125"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5"/>
+      <c r="W123" s="5"/>
+      <c r="X123" s="5"/>
     </row>
     <row r="124">
-      <c r="A124" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="B124" s="73">
-        <v>1.8328E7</v>
-      </c>
-      <c r="C124" s="73"/>
-      <c r="D124" s="68"/>
-      <c r="E124" s="70"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
+      <c r="A124" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B124" s="106">
+        <v>41000.0</v>
+      </c>
+      <c r="C124" s="106"/>
+      <c r="D124" s="125"/>
+      <c r="E124" s="125"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="5"/>
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5"/>
+      <c r="V124" s="5"/>
+      <c r="W124" s="5"/>
+      <c r="X124" s="5"/>
     </row>
     <row r="125">
-      <c r="A125" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="B125" s="74">
-        <v>1000.0</v>
-      </c>
-      <c r="C125" s="75"/>
-      <c r="D125" s="68"/>
-      <c r="E125" s="70"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
+      <c r="A125" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="B125" s="106">
+        <v>2000.0</v>
+      </c>
+      <c r="C125" s="14"/>
+      <c r="D125" s="125"/>
+      <c r="E125" s="125"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5"/>
+      <c r="V125" s="5"/>
+      <c r="W125" s="5"/>
+      <c r="X125" s="5"/>
     </row>
     <row r="126">
-      <c r="A126" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="B126" s="76">
-        <v>12000.0</v>
-      </c>
-      <c r="C126" s="76"/>
-      <c r="D126" s="68"/>
-      <c r="E126" s="77"/>
+      <c r="A126" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B126" s="106">
+        <v>2000.0</v>
+      </c>
+      <c r="C126" s="106"/>
+      <c r="D126" s="98"/>
+      <c r="E126" s="98"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
     <row r="127">
-      <c r="A127" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="B127" s="76">
-        <f>38860*12</f>
-        <v>466320</v>
+      <c r="A127" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B127" s="106">
+        <v>43000.0</v>
       </c>
       <c r="C127" s="14"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="68"/>
+      <c r="D127" s="98"/>
+      <c r="E127" s="98"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
     <row r="128">
-      <c r="A128" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="B128" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="68"/>
-      <c r="E128" s="68"/>
+      <c r="A128" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="B128" s="145">
+        <v>1.558988E7</v>
+      </c>
+      <c r="C128" s="114"/>
+      <c r="D128" s="98"/>
+      <c r="E128" s="98"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
     <row r="129">
-      <c r="A129" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B129" s="76">
-        <v>1.1658E7</v>
-      </c>
-      <c r="C129" s="76"/>
-      <c r="D129" s="68"/>
-      <c r="E129" s="68"/>
+      <c r="A129" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B129" s="113">
+        <f>B121+B115-B127</f>
+        <v>2279800</v>
+      </c>
+      <c r="C129" s="114"/>
+      <c r="D129" s="98"/>
+      <c r="E129" s="98"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
     <row r="130">
-      <c r="A130" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B130" s="14">
-        <v>9724000.0</v>
-      </c>
-      <c r="C130" s="14"/>
-      <c r="D130" s="80"/>
-      <c r="E130" s="80"/>
+      <c r="A130" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B130" s="105">
+        <f>B129*C130</f>
+        <v>569950</v>
+      </c>
+      <c r="C130" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="E130" s="110"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
     <row r="131">
-      <c r="A131" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="B131" s="76">
-        <v>27000.0</v>
-      </c>
-      <c r="C131" s="76"/>
-      <c r="D131" s="68"/>
-      <c r="E131" s="68"/>
+      <c r="A131" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="B131" s="113">
+        <f>B129-B130</f>
+        <v>1709850</v>
+      </c>
+      <c r="C131" s="14"/>
+      <c r="D131" s="98"/>
+      <c r="E131" s="98"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
     <row r="132">
-      <c r="A132" s="67" t="s">
-        <v>82</v>
+      <c r="A132" s="97" t="s">
+        <v>112</v>
       </c>
       <c r="B132" s="14">
         <v>0.0</v>
       </c>
       <c r="C132" s="14"/>
-      <c r="D132" s="68"/>
-      <c r="E132" s="68"/>
+      <c r="D132" s="98"/>
+      <c r="E132" s="98"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
     <row r="133">
-      <c r="A133" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B133" s="76">
-        <v>3848880.0</v>
-      </c>
-      <c r="C133" s="75">
-        <v>0.21</v>
-      </c>
-      <c r="D133" s="68"/>
-      <c r="E133" s="68"/>
+      <c r="A133" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="B133" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C133" s="14"/>
+      <c r="D133" s="98"/>
+      <c r="E133" s="98"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
     <row r="134">
-      <c r="A134" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B134" s="83">
-        <f>2781120-B127</f>
-        <v>2314800</v>
+      <c r="A134" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B134" s="14">
+        <v>0.0</v>
       </c>
       <c r="C134" s="14"/>
-      <c r="D134" s="68"/>
-      <c r="E134" s="68"/>
+      <c r="D134" s="98"/>
+      <c r="E134" s="98"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
     <row r="135">
-      <c r="A135" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="B135" s="14">
-        <v>0.0</v>
+      <c r="A135" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="B135" s="113">
+        <f>B131+B132-B133-B134</f>
+        <v>1709850</v>
       </c>
       <c r="C135" s="14"/>
-      <c r="D135" s="68"/>
-      <c r="E135" s="68"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
+      <c r="D135" s="98"/>
+      <c r="E135" s="98"/>
     </row>
     <row r="136">
-      <c r="A136" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="B136" s="14">
-        <v>0.0</v>
+      <c r="A136" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="B136" s="106">
+        <v>1000000.0</v>
       </c>
       <c r="C136" s="14"/>
-      <c r="D136" s="68"/>
-      <c r="E136" s="68"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
+      <c r="D136" s="98"/>
+      <c r="E136" s="98"/>
     </row>
     <row r="137">
-      <c r="A137" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="B137" s="73">
-        <v>8000.0</v>
+      <c r="A137" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="B137" s="14">
+        <v>0.0</v>
       </c>
       <c r="C137" s="14"/>
-      <c r="D137" s="68"/>
-      <c r="E137" s="68"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
+      <c r="D137" s="98"/>
+      <c r="E137" s="98"/>
     </row>
     <row r="138">
-      <c r="A138" s="67" t="s">
-        <v>88</v>
+      <c r="A138" s="97" t="s">
+        <v>117</v>
       </c>
       <c r="B138" s="14">
         <v>0.0</v>
       </c>
       <c r="C138" s="14"/>
-      <c r="D138" s="68"/>
-      <c r="E138" s="68"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
+      <c r="D138" s="98"/>
+      <c r="E138" s="98"/>
     </row>
     <row r="139">
-      <c r="A139" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="B139" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C139" s="14"/>
-      <c r="D139" s="68"/>
-      <c r="E139" s="68"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
+      <c r="A139" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="B139" s="106">
+        <v>1000000.0</v>
+      </c>
+      <c r="C139" s="106"/>
+      <c r="D139" s="98"/>
+      <c r="E139" s="98"/>
     </row>
     <row r="140">
-      <c r="A140" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="B140" s="73">
-        <v>8000.0</v>
-      </c>
-      <c r="C140" s="73"/>
-      <c r="D140" s="68"/>
-      <c r="E140" s="68"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="B141" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C141" s="14"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="68"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="B142" s="88">
-        <v>1.8336E7</v>
-      </c>
-      <c r="C142" s="84"/>
-      <c r="D142" s="68"/>
-      <c r="E142" s="68"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="B143" s="76">
-        <v>41000.0</v>
-      </c>
-      <c r="C143" s="76"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="68"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="B144" s="76">
-        <v>2000.0</v>
-      </c>
-      <c r="C144" s="14"/>
-      <c r="D144" s="68"/>
-      <c r="E144" s="68"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="B145" s="76">
-        <v>2000.0</v>
-      </c>
-      <c r="C145" s="76"/>
-      <c r="D145" s="68"/>
-      <c r="E145" s="68"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="B146" s="76">
-        <v>43000.0</v>
-      </c>
-      <c r="C146" s="14"/>
-      <c r="D146" s="68"/>
-      <c r="E146" s="68"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="B147" s="88">
-        <v>1.558988E7</v>
-      </c>
-      <c r="C147" s="84"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="68"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="B148" s="83">
-        <f>B140+B134-B146</f>
-        <v>2279800</v>
-      </c>
-      <c r="C148" s="84"/>
-      <c r="D148" s="68"/>
-      <c r="E148" s="68"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="B149" s="75">
-        <f>B148*C149</f>
-        <v>569950</v>
-      </c>
-      <c r="C149" s="85">
-        <v>0.25</v>
-      </c>
-      <c r="E149" s="80"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="B150" s="83">
-        <f>B148-B149</f>
-        <v>1709850</v>
-      </c>
-      <c r="C150" s="14"/>
-      <c r="D150" s="68"/>
-      <c r="E150" s="68"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="B151" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C151" s="14"/>
-      <c r="D151" s="68"/>
-      <c r="E151" s="68"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="B152" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C152" s="14"/>
-      <c r="D152" s="68"/>
-      <c r="E152" s="68"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="B153" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C153" s="14"/>
-      <c r="D153" s="68"/>
-      <c r="E153" s="68"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B154" s="83">
-        <f>B150+B151-B152-B153</f>
-        <v>1709850</v>
-      </c>
-      <c r="C154" s="14"/>
-      <c r="D154" s="68"/>
-      <c r="E154" s="68"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="B155" s="76">
-        <v>1000000.0</v>
-      </c>
-      <c r="C155" s="14"/>
-      <c r="D155" s="68"/>
-      <c r="E155" s="68"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="B156" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C156" s="14"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="68"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="B157" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C157" s="14"/>
-      <c r="D157" s="68"/>
-      <c r="E157" s="68"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="B158" s="76">
-        <v>1000000.0</v>
-      </c>
-      <c r="C158" s="76"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="68"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="B159" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C159" s="14"/>
-      <c r="D159" s="68"/>
-      <c r="E159" s="68"/>
+      <c r="A140" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="B140" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C140" s="14"/>
+      <c r="D140" s="98"/>
+      <c r="E140" s="98"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="P57:Q57"/>
     <mergeCell ref="R57:S57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="H100:K100"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="H43:M43"/>
+    <mergeCell ref="O43:T43"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="O43:T43"/>
+    <mergeCell ref="D19:J19"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
